--- a/Métriques discriminantes/Tableau métriques/Evolutions métriques/Par journée/2023_2024/Skill Corner/physical_bottom15.xlsx
+++ b/Métriques discriminantes/Tableau métriques/Evolutions métriques/Par journée/2023_2024/Skill Corner/physical_bottom15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO39"/>
+  <dimension ref="A1:AN39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,202 +441,197 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_all</t>
+          <t>total_distance_per_Match</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_all</t>
+          <t>total_metersperminute_per_Match</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_all</t>
+          <t>running_distance_per_Match</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_all</t>
+          <t>hsr_distance_per_Match</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_all</t>
+          <t>hsr_count_per_Match</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_all</t>
+          <t>sprint_distance_per_Match</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_all</t>
+          <t>sprint_count_per_Match</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_all</t>
+          <t>hi_distance_per_Match</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_all</t>
+          <t>hi_count_per_Match</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_all</t>
+          <t>medaccel_count_per_Match</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_all</t>
+          <t>highaccel_count_per_Match</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_all</t>
+          <t>meddecel_count_per_Match</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>highdecel_count_full_all</t>
+          <t>highdecel_count_per_Match</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>psv99</t>
+          <t>total_distance_per30tip</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_tip</t>
+          <t>total_metersperminute_per30tip</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_tip</t>
+          <t>running_distance_per30tip</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_tip</t>
+          <t>hsr_distance_per30tip</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_tip</t>
+          <t>hsr_count_per30tip</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_tip</t>
+          <t>sprint_distance_per30tip</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_tip</t>
+          <t>sprint_count_per30tip</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_tip</t>
+          <t>hi_distance_per30tip</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_tip</t>
+          <t>hi_count_per30tip</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_tip</t>
+          <t>medaccel_count_per30tip</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_tip</t>
+          <t>highaccel_count_per30tip</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_tip</t>
+          <t>meddecel_count_per30tip</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_tip</t>
+          <t>highdecel_count_per30tip</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>highdecel_count_full_tip</t>
+          <t>total_distance_per30otip</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_otip</t>
+          <t>total_metersperminute_per30otip</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_otip</t>
+          <t>running_distance_per30otip</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_otip</t>
+          <t>hsr_distance_per30otip</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_otip</t>
+          <t>hsr_count_per30otip</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_otip</t>
+          <t>sprint_distance_per30otip</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_otip</t>
+          <t>sprint_count_per30otip</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_otip</t>
+          <t>hi_distance_per30otip</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_otip</t>
+          <t>hi_count_per30otip</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_otip</t>
+          <t>medaccel_count_per30otip</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_otip</t>
+          <t>highaccel_count_per30otip</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_otip</t>
+          <t>meddecel_count_per30otip</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_otip</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>highdecel_count_full_otip</t>
+          <t>highdecel_count_per30otip</t>
         </is>
       </c>
     </row>
@@ -684,85 +679,82 @@
         <v>173.0853036848714</v>
       </c>
       <c r="O2" t="n">
-        <v>361.5096967406515</v>
+        <v>53324.59532378545</v>
       </c>
       <c r="P2" t="n">
-        <v>34388.48084204713</v>
+        <v>1777.486643446716</v>
       </c>
       <c r="Q2" t="n">
-        <v>1777.486643446716</v>
+        <v>9304.381651815467</v>
       </c>
       <c r="R2" t="n">
-        <v>5665.046561964885</v>
+        <v>4119.974476700648</v>
       </c>
       <c r="S2" t="n">
-        <v>2238.768759040433</v>
+        <v>384.2365732631454</v>
       </c>
       <c r="T2" t="n">
-        <v>218.5442857244263</v>
+        <v>1450.572848787755</v>
       </c>
       <c r="U2" t="n">
-        <v>800.0073225574299</v>
+        <v>76.23683886477217</v>
       </c>
       <c r="V2" t="n">
-        <v>43.75004437831142</v>
+        <v>5570.548767232386</v>
       </c>
       <c r="W2" t="n">
-        <v>3038.776081597863</v>
+        <v>460.4662881823647</v>
       </c>
       <c r="X2" t="n">
-        <v>262.2943301027377</v>
+        <v>591.8830116324571</v>
       </c>
       <c r="Y2" t="n">
-        <v>372.968188197009</v>
+        <v>43.63165828365926</v>
       </c>
       <c r="Z2" t="n">
-        <v>24.55361483792368</v>
+        <v>380.1007005282621</v>
       </c>
       <c r="AA2" t="n">
-        <v>253.3935755195676</v>
+        <v>64.39486756112109</v>
       </c>
       <c r="AB2" t="n">
-        <v>39.7411539126258</v>
+        <v>56475.10366190604</v>
       </c>
       <c r="AC2" t="n">
-        <v>37641.22665615288</v>
+        <v>1882.496836372298</v>
       </c>
       <c r="AD2" t="n">
-        <v>1882.496836372298</v>
+        <v>11341.31370415009</v>
       </c>
       <c r="AE2" t="n">
-        <v>7334.257079000278</v>
+        <v>4580.233458173833</v>
       </c>
       <c r="AF2" t="n">
-        <v>2957.420247289857</v>
+        <v>420.5325102255356</v>
       </c>
       <c r="AG2" t="n">
-        <v>276.5116453713549</v>
+        <v>1279.334316752713</v>
       </c>
       <c r="AH2" t="n">
-        <v>859.6984962229848</v>
+        <v>66.23254656914408</v>
       </c>
       <c r="AI2" t="n">
-        <v>44.75610350646826</v>
+        <v>5859.56646358359</v>
       </c>
       <c r="AJ2" t="n">
-        <v>3817.118743512841</v>
+        <v>486.7694795916034</v>
       </c>
       <c r="AK2" t="n">
-        <v>321.2677488778232</v>
+        <v>668.7043834760383</v>
       </c>
       <c r="AL2" t="n">
-        <v>455.6081886797141</v>
+        <v>35.1637334787926</v>
       </c>
       <c r="AM2" t="n">
-        <v>23.1563143592177</v>
+        <v>461.322243666195</v>
       </c>
       <c r="AN2" t="n">
-        <v>318.0560977172204</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>59.06329611385543</v>
+        <v>89.30849902734711</v>
       </c>
     </row>
     <row r="3">
@@ -809,85 +801,82 @@
         <v>155.0697094021464</v>
       </c>
       <c r="O3" t="n">
-        <v>357.1419148624006</v>
+        <v>52398.89218127123</v>
       </c>
       <c r="P3" t="n">
-        <v>32034.12886766718</v>
+        <v>1746.63295602885</v>
       </c>
       <c r="Q3" t="n">
-        <v>1746.63295602885</v>
+        <v>8845.884599611321</v>
       </c>
       <c r="R3" t="n">
-        <v>5055.455269299817</v>
+        <v>3450.439380576324</v>
       </c>
       <c r="S3" t="n">
-        <v>1962.978159574675</v>
+        <v>327.6712659806375</v>
       </c>
       <c r="T3" t="n">
-        <v>187.4932671931201</v>
+        <v>1215.909132063997</v>
       </c>
       <c r="U3" t="n">
-        <v>665.9490535275685</v>
+        <v>56.59253930697894</v>
       </c>
       <c r="V3" t="n">
-        <v>33.76984235416507</v>
+        <v>4666.353159799438</v>
       </c>
       <c r="W3" t="n">
-        <v>2628.927213102244</v>
+        <v>384.2592171657317</v>
       </c>
       <c r="X3" t="n">
-        <v>221.2631095472852</v>
+        <v>546.1693827806721</v>
       </c>
       <c r="Y3" t="n">
-        <v>329.4675275240369</v>
+        <v>29.63846017928548</v>
       </c>
       <c r="Z3" t="n">
-        <v>16.47909359912444</v>
+        <v>360.4534404882406</v>
       </c>
       <c r="AA3" t="n">
-        <v>226.7346875973305</v>
+        <v>62.44827158568348</v>
       </c>
       <c r="AB3" t="n">
-        <v>35.32797513939293</v>
+        <v>58005.46404631751</v>
       </c>
       <c r="AC3" t="n">
-        <v>38825.58032482594</v>
+        <v>1933.517455143543</v>
       </c>
       <c r="AD3" t="n">
-        <v>1933.517455143543</v>
+        <v>11219.60311744754</v>
       </c>
       <c r="AE3" t="n">
-        <v>7189.134421321146</v>
+        <v>4270.75420426273</v>
       </c>
       <c r="AF3" t="n">
-        <v>2701.593443425022</v>
+        <v>395.635716478866</v>
       </c>
       <c r="AG3" t="n">
-        <v>252.2326721346157</v>
+        <v>1095.755939207283</v>
       </c>
       <c r="AH3" t="n">
-        <v>695.8743481971694</v>
+        <v>58.61324541786818</v>
       </c>
       <c r="AI3" t="n">
-        <v>37.53841579804537</v>
+        <v>5366.509503303385</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3397.467791622191</v>
+        <v>454.2474940189391</v>
       </c>
       <c r="AK3" t="n">
-        <v>289.771087932661</v>
+        <v>632.1344993839685</v>
       </c>
       <c r="AL3" t="n">
-        <v>432.8022282196159</v>
+        <v>29.85924025442018</v>
       </c>
       <c r="AM3" t="n">
-        <v>19.10257471673415</v>
+        <v>465.9388329275908</v>
       </c>
       <c r="AN3" t="n">
-        <v>321.6056540117582</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>54.89194588668677</v>
+        <v>84.20958771689382</v>
       </c>
     </row>
     <row r="4">
@@ -934,85 +923,82 @@
         <v>154.1255335227514</v>
       </c>
       <c r="O4" t="n">
-        <v>355.8950211798333</v>
+        <v>52093.05812714321</v>
       </c>
       <c r="P4" t="n">
-        <v>32420.3962962743</v>
+        <v>1736.43274247403</v>
       </c>
       <c r="Q4" t="n">
-        <v>1736.43274247403</v>
+        <v>8786.669299189276</v>
       </c>
       <c r="R4" t="n">
-        <v>5059.275734920127</v>
+        <v>3484.89843980965</v>
       </c>
       <c r="S4" t="n">
-        <v>1938.289970986562</v>
+        <v>346.124555825543</v>
       </c>
       <c r="T4" t="n">
-        <v>194.1113661815209</v>
+        <v>1458.17704456291</v>
       </c>
       <c r="U4" t="n">
-        <v>770.5984625311597</v>
+        <v>65.67287533328032</v>
       </c>
       <c r="V4" t="n">
-        <v>37.66538836947372</v>
+        <v>4943.071754739201</v>
       </c>
       <c r="W4" t="n">
-        <v>2708.888433517722</v>
+        <v>411.8021106581586</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7767545509946</v>
+        <v>542.2631686116036</v>
       </c>
       <c r="Y4" t="n">
-        <v>335.9700573811572</v>
+        <v>30.59021157925735</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.08096093744464</v>
+        <v>370.71938716828</v>
       </c>
       <c r="AA4" t="n">
-        <v>238.2384699684597</v>
+        <v>60.58370506898336</v>
       </c>
       <c r="AB4" t="n">
-        <v>36.16280869136674</v>
+        <v>54465.15504652277</v>
       </c>
       <c r="AC4" t="n">
-        <v>35981.61675581174</v>
+        <v>1815.506087172554</v>
       </c>
       <c r="AD4" t="n">
-        <v>1815.506087172554</v>
+        <v>10226.18681532402</v>
       </c>
       <c r="AE4" t="n">
-        <v>6517.210122564902</v>
+        <v>3944.061146893052</v>
       </c>
       <c r="AF4" t="n">
-        <v>2466.718290851677</v>
+        <v>370.0381264788612</v>
       </c>
       <c r="AG4" t="n">
-        <v>232.1628983769901</v>
+        <v>1137.941193213365</v>
       </c>
       <c r="AH4" t="n">
-        <v>679.5976369527247</v>
+        <v>56.15565797819599</v>
       </c>
       <c r="AI4" t="n">
-        <v>35.78269973603339</v>
+        <v>5082.007518514703</v>
       </c>
       <c r="AJ4" t="n">
-        <v>3146.315927804402</v>
+        <v>426.1975534577508</v>
       </c>
       <c r="AK4" t="n">
-        <v>267.9455981130234</v>
+        <v>614.8030391864032</v>
       </c>
       <c r="AL4" t="n">
-        <v>412.4912837069674</v>
+        <v>31.71135758256197</v>
       </c>
       <c r="AM4" t="n">
-        <v>20.40176582187714</v>
+        <v>437.1872936228271</v>
       </c>
       <c r="AN4" t="n">
-        <v>298.299234275394</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>51.00171153116665</v>
+        <v>78.73271818578453</v>
       </c>
     </row>
     <row r="5">
@@ -1059,85 +1045,82 @@
         <v>162.4342295463354</v>
       </c>
       <c r="O5" t="n">
-        <v>375.403907479549</v>
+        <v>53498.87036791015</v>
       </c>
       <c r="P5" t="n">
-        <v>33142.8140773656</v>
+        <v>1783.295152816019</v>
       </c>
       <c r="Q5" t="n">
-        <v>1783.295152816019</v>
+        <v>8982.432337387803</v>
       </c>
       <c r="R5" t="n">
-        <v>5178.876722191437</v>
+        <v>3879.658101789485</v>
       </c>
       <c r="S5" t="n">
-        <v>2066.908844439409</v>
+        <v>355.8225078326716</v>
       </c>
       <c r="T5" t="n">
-        <v>196.1635701940886</v>
+        <v>1425.7866012958</v>
       </c>
       <c r="U5" t="n">
-        <v>769.7784043603551</v>
+        <v>70.75798101810351</v>
       </c>
       <c r="V5" t="n">
-        <v>39.55779414146318</v>
+        <v>5305.442794930188</v>
       </c>
       <c r="W5" t="n">
-        <v>2836.687248799764</v>
+        <v>426.5713382226402</v>
       </c>
       <c r="X5" t="n">
-        <v>235.7213643355518</v>
+        <v>550.5517980006498</v>
       </c>
       <c r="Y5" t="n">
-        <v>334.1551551388883</v>
+        <v>31.12166087624573</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.68192114576569</v>
+        <v>378.9266239197843</v>
       </c>
       <c r="AA5" t="n">
-        <v>236.0944094581661</v>
+        <v>63.25497014226598</v>
       </c>
       <c r="AB5" t="n">
-        <v>36.60855550338257</v>
+        <v>59089.09202587263</v>
       </c>
       <c r="AC5" t="n">
-        <v>40392.41242124179</v>
+        <v>1969.636120633339</v>
       </c>
       <c r="AD5" t="n">
-        <v>1969.636120633339</v>
+        <v>11396.90344540937</v>
       </c>
       <c r="AE5" t="n">
-        <v>7492.684226017894</v>
+        <v>4306.075103262534</v>
       </c>
       <c r="AF5" t="n">
-        <v>2799.391170041529</v>
+        <v>394.9086113407615</v>
       </c>
       <c r="AG5" t="n">
-        <v>260.982727549875</v>
+        <v>1205.446836640634</v>
       </c>
       <c r="AH5" t="n">
-        <v>772.8173728868642</v>
+        <v>58.3941636532931</v>
       </c>
       <c r="AI5" t="n">
-        <v>39.58248838958396</v>
+        <v>5511.521911774072</v>
       </c>
       <c r="AJ5" t="n">
-        <v>3572.208542928393</v>
+        <v>453.3003070820228</v>
       </c>
       <c r="AK5" t="n">
-        <v>300.5652159394589</v>
+        <v>667.2810292764232</v>
       </c>
       <c r="AL5" t="n">
-        <v>452.9438904002229</v>
+        <v>36.66930234392056</v>
       </c>
       <c r="AM5" t="n">
-        <v>22.01557344905849</v>
+        <v>481.9616606112406</v>
       </c>
       <c r="AN5" t="n">
-        <v>334.44732779405</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>58.15442504652799</v>
+        <v>93.39823126856653</v>
       </c>
     </row>
     <row r="6">
@@ -1184,85 +1167,82 @@
         <v>157.1942032012832</v>
       </c>
       <c r="O6" t="n">
-        <v>364.7630343061309</v>
+        <v>52911.09752595631</v>
       </c>
       <c r="P6" t="n">
-        <v>33637.87125106464</v>
+        <v>1763.701711403244</v>
       </c>
       <c r="Q6" t="n">
-        <v>1763.701711403244</v>
+        <v>8488.605872769454</v>
       </c>
       <c r="R6" t="n">
-        <v>5173.024046156476</v>
+        <v>3670.292982717872</v>
       </c>
       <c r="S6" t="n">
-        <v>2091.657554276425</v>
+        <v>357.1431083784933</v>
       </c>
       <c r="T6" t="n">
-        <v>204.6647839182884</v>
+        <v>1453.910310971872</v>
       </c>
       <c r="U6" t="n">
-        <v>800.5764706632726</v>
+        <v>72.32127875371302</v>
       </c>
       <c r="V6" t="n">
-        <v>41.66835138038308</v>
+        <v>5124.209641584553</v>
       </c>
       <c r="W6" t="n">
-        <v>2892.234024939698</v>
+        <v>429.4566850410578</v>
       </c>
       <c r="X6" t="n">
-        <v>246.3331352986715</v>
+        <v>560.5119693420195</v>
       </c>
       <c r="Y6" t="n">
-        <v>342.0270463322362</v>
+        <v>29.78617718922715</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.49792428437463</v>
+        <v>380.1238041374362</v>
       </c>
       <c r="AA6" t="n">
-        <v>241.7486347707496</v>
+        <v>62.98827103177781</v>
       </c>
       <c r="AB6" t="n">
-        <v>37.58149456229356</v>
+        <v>56916.80493681883</v>
       </c>
       <c r="AC6" t="n">
-        <v>37891.39577115956</v>
+        <v>1897.229954615347</v>
       </c>
       <c r="AD6" t="n">
-        <v>1897.229954615347</v>
+        <v>10893.6350379077</v>
       </c>
       <c r="AE6" t="n">
-        <v>7086.064144454895</v>
+        <v>4193.671320109648</v>
       </c>
       <c r="AF6" t="n">
-        <v>2672.079725093334</v>
+        <v>383.068361918724</v>
       </c>
       <c r="AG6" t="n">
-        <v>248.2455966235494</v>
+        <v>1057.32307618021</v>
       </c>
       <c r="AH6" t="n">
-        <v>692.3542711861651</v>
+        <v>52.1208702902079</v>
       </c>
       <c r="AI6" t="n">
-        <v>35.63910807324353</v>
+        <v>5250.995180754826</v>
       </c>
       <c r="AJ6" t="n">
-        <v>3364.433996279499</v>
+        <v>435.1935593140232</v>
       </c>
       <c r="AK6" t="n">
-        <v>283.8847046967929</v>
+        <v>632.309407114341</v>
       </c>
       <c r="AL6" t="n">
-        <v>419.3618590260233</v>
+        <v>28.28510070104988</v>
       </c>
       <c r="AM6" t="n">
-        <v>18.98119214844686</v>
+        <v>457.1662490138439</v>
       </c>
       <c r="AN6" t="n">
-        <v>307.085551471232</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>51.59782929762734</v>
+        <v>81.26041138651459</v>
       </c>
     </row>
     <row r="7">
@@ -1309,85 +1289,82 @@
         <v>158.0972545994139</v>
       </c>
       <c r="O7" t="n">
-        <v>358.0231592764061</v>
+        <v>51350.73383737745</v>
       </c>
       <c r="P7" t="n">
-        <v>34297.04548400799</v>
+        <v>1711.691785965574</v>
       </c>
       <c r="Q7" t="n">
-        <v>1711.691785965574</v>
+        <v>8325.318276117057</v>
       </c>
       <c r="R7" t="n">
-        <v>5352.14079185352</v>
+        <v>3294.239461502561</v>
       </c>
       <c r="S7" t="n">
-        <v>2071.014463119137</v>
+        <v>309.221638216612</v>
       </c>
       <c r="T7" t="n">
-        <v>197.7442365365991</v>
+        <v>1122.323108019937</v>
       </c>
       <c r="U7" t="n">
-        <v>718.7234641646352</v>
+        <v>56.9169321115085</v>
       </c>
       <c r="V7" t="n">
-        <v>37.20982854135021</v>
+        <v>4416.565170897597</v>
       </c>
       <c r="W7" t="n">
-        <v>2789.737927283772</v>
+        <v>366.1402038407568</v>
       </c>
       <c r="X7" t="n">
-        <v>234.9540650779493</v>
+        <v>527.6035249765725</v>
       </c>
       <c r="Y7" t="n">
-        <v>343.6710927430029</v>
+        <v>30.36317774465694</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.61625288976416</v>
+        <v>363.3189484244698</v>
       </c>
       <c r="AA7" t="n">
-        <v>242.0770071498023</v>
+        <v>56.05060558098622</v>
       </c>
       <c r="AB7" t="n">
-        <v>35.82191902034081</v>
+        <v>57385.92176197162</v>
       </c>
       <c r="AC7" t="n">
-        <v>36936.30379211444</v>
+        <v>1912.865744070185</v>
       </c>
       <c r="AD7" t="n">
-        <v>1912.865744070185</v>
+        <v>10972.73065145127</v>
       </c>
       <c r="AE7" t="n">
-        <v>6903.385757828435</v>
+        <v>4296.669993529108</v>
       </c>
       <c r="AF7" t="n">
-        <v>2694.660643638561</v>
+        <v>385.2390803732071</v>
       </c>
       <c r="AG7" t="n">
-        <v>246.4703217721387</v>
+        <v>1067.704814143694</v>
       </c>
       <c r="AH7" t="n">
-        <v>665.3696137096523</v>
+        <v>55.43225147225808</v>
       </c>
       <c r="AI7" t="n">
-        <v>35.79690212878184</v>
+        <v>5364.378137573062</v>
       </c>
       <c r="AJ7" t="n">
-        <v>3360.030257348214</v>
+        <v>440.6733629130736</v>
       </c>
       <c r="AK7" t="n">
-        <v>282.2672239009206</v>
+        <v>653.1573527236794</v>
       </c>
       <c r="AL7" t="n">
-        <v>422.0089985600393</v>
+        <v>30.98981085561956</v>
       </c>
       <c r="AM7" t="n">
-        <v>19.45780205329755</v>
+        <v>461.0500461438046</v>
       </c>
       <c r="AN7" t="n">
-        <v>300.7122037839851</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>53.29441009763144</v>
+        <v>87.88258840351844</v>
       </c>
     </row>
     <row r="8">
@@ -1434,85 +1411,82 @@
         <v>162.8223680481825</v>
       </c>
       <c r="O8" t="n">
-        <v>369.5251611986529</v>
+        <v>53719.34485590284</v>
       </c>
       <c r="P8" t="n">
-        <v>35696.071737934</v>
+        <v>1790.643904069787</v>
       </c>
       <c r="Q8" t="n">
-        <v>1790.643904069787</v>
+        <v>8778.8622299198</v>
       </c>
       <c r="R8" t="n">
-        <v>5493.680060060554</v>
+        <v>3598.205014033653</v>
       </c>
       <c r="S8" t="n">
-        <v>2132.022810954701</v>
+        <v>346.657576636266</v>
       </c>
       <c r="T8" t="n">
-        <v>207.3141445223351</v>
+        <v>1352.293809284805</v>
       </c>
       <c r="U8" t="n">
-        <v>759.0338965067061</v>
+        <v>69.49689686450664</v>
       </c>
       <c r="V8" t="n">
-        <v>40.92765444036463</v>
+        <v>4950.501293257042</v>
       </c>
       <c r="W8" t="n">
-        <v>2891.056707461408</v>
+        <v>416.1506567794697</v>
       </c>
       <c r="X8" t="n">
-        <v>248.2417989626998</v>
+        <v>564.4583289627341</v>
       </c>
       <c r="Y8" t="n">
-        <v>372.0861426328247</v>
+        <v>31.53941291733291</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.92451134938618</v>
+        <v>383.1034337496183</v>
       </c>
       <c r="AA8" t="n">
-        <v>262.2471103392062</v>
+        <v>60.63985412571981</v>
       </c>
       <c r="AB8" t="n">
-        <v>38.40154667900752</v>
+        <v>58516.75200392</v>
       </c>
       <c r="AC8" t="n">
-        <v>37263.19524737269</v>
+        <v>1950.553764411771</v>
       </c>
       <c r="AD8" t="n">
-        <v>1950.553764411771</v>
+        <v>11609.9806046895</v>
       </c>
       <c r="AE8" t="n">
-        <v>7035.210329729684</v>
+        <v>4631.07559677175</v>
       </c>
       <c r="AF8" t="n">
-        <v>2810.988748221797</v>
+        <v>424.0898303438472</v>
       </c>
       <c r="AG8" t="n">
-        <v>261.9962683846701</v>
+        <v>1280.46600677982</v>
       </c>
       <c r="AH8" t="n">
-        <v>784.8950692993676</v>
+        <v>66.52410722490909</v>
       </c>
       <c r="AI8" t="n">
-        <v>41.66433590138062</v>
+        <v>5911.54289319566</v>
       </c>
       <c r="AJ8" t="n">
-        <v>3595.883817521165</v>
+        <v>490.6151104371031</v>
       </c>
       <c r="AK8" t="n">
-        <v>303.6606042860507</v>
+        <v>653.5213446501315</v>
       </c>
       <c r="AL8" t="n">
-        <v>420.5330390259411</v>
+        <v>30.88744892088807</v>
       </c>
       <c r="AM8" t="n">
-        <v>20.36617620810343</v>
+        <v>459.6014830893039</v>
       </c>
       <c r="AN8" t="n">
-        <v>301.5427751040276</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>53.86359306242424</v>
+        <v>86.71186398210162</v>
       </c>
     </row>
     <row r="9">
@@ -1559,85 +1533,82 @@
         <v>164.9907947414072</v>
       </c>
       <c r="O9" t="n">
-        <v>365.208898152184</v>
+        <v>53873.52848353388</v>
       </c>
       <c r="P9" t="n">
-        <v>34536.46447857919</v>
+        <v>1795.780946151006</v>
       </c>
       <c r="Q9" t="n">
-        <v>1795.780946151006</v>
+        <v>9060.557089657468</v>
       </c>
       <c r="R9" t="n">
-        <v>5405.375556225916</v>
+        <v>3892.178406948908</v>
       </c>
       <c r="S9" t="n">
-        <v>2162.206547795536</v>
+        <v>363.3421532995181</v>
       </c>
       <c r="T9" t="n">
-        <v>207.7291857478193</v>
+        <v>1382.838982489404</v>
       </c>
       <c r="U9" t="n">
-        <v>750.2571530458517</v>
+        <v>68.37611511974366</v>
       </c>
       <c r="V9" t="n">
-        <v>38.58894935987224</v>
+        <v>5275.01302540417</v>
       </c>
       <c r="W9" t="n">
-        <v>2912.463700841388</v>
+        <v>431.7219997135838</v>
       </c>
       <c r="X9" t="n">
-        <v>246.3181351076916</v>
+        <v>581.1842506374954</v>
       </c>
       <c r="Y9" t="n">
-        <v>358.4026175955809</v>
+        <v>35.43800900189232</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.27344215947807</v>
+        <v>391.2494562741466</v>
       </c>
       <c r="AA9" t="n">
-        <v>252.8005357972379</v>
+        <v>67.7750512461801</v>
       </c>
       <c r="AB9" t="n">
-        <v>40.41448895874775</v>
+        <v>57803.22295915686</v>
       </c>
       <c r="AC9" t="n">
-        <v>38960.23459588444</v>
+        <v>1926.778134090876</v>
       </c>
       <c r="AD9" t="n">
-        <v>1926.778134090876</v>
+        <v>11351.30154029331</v>
       </c>
       <c r="AE9" t="n">
-        <v>7423.464811903887</v>
+        <v>4411.590620933444</v>
       </c>
       <c r="AF9" t="n">
-        <v>2859.684599735587</v>
+        <v>404.4382080067522</v>
       </c>
       <c r="AG9" t="n">
-        <v>261.3613832071361</v>
+        <v>1183.928572410617</v>
       </c>
       <c r="AH9" t="n">
-        <v>752.7939280502638</v>
+        <v>61.03184746231911</v>
       </c>
       <c r="AI9" t="n">
-        <v>39.26833585414144</v>
+        <v>5595.517815482188</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3612.478527785851</v>
+        <v>465.4638566030376</v>
       </c>
       <c r="AK9" t="n">
-        <v>300.6297190612776</v>
+        <v>649.8263540320296</v>
       </c>
       <c r="AL9" t="n">
-        <v>441.2590923466377</v>
+        <v>31.48002514063167</v>
       </c>
       <c r="AM9" t="n">
-        <v>19.62961685821938</v>
+        <v>469.7997864775081</v>
       </c>
       <c r="AN9" t="n">
-        <v>321.3908443324532</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>56.90481169055156</v>
+        <v>89.91745751575561</v>
       </c>
     </row>
     <row r="10">
@@ -1684,85 +1655,82 @@
         <v>150.516592091697</v>
       </c>
       <c r="O10" t="n">
-        <v>367.9235967207861</v>
+        <v>54096.42170818059</v>
       </c>
       <c r="P10" t="n">
-        <v>33894.4546388638</v>
+        <v>1803.210317515765</v>
       </c>
       <c r="Q10" t="n">
-        <v>1803.210317515765</v>
+        <v>8881.160682109357</v>
       </c>
       <c r="R10" t="n">
-        <v>5265.589776566244</v>
+        <v>3619.679535038987</v>
       </c>
       <c r="S10" t="n">
-        <v>2069.058727151386</v>
+        <v>338.4153194268027</v>
       </c>
       <c r="T10" t="n">
-        <v>195.6759671271103</v>
+        <v>1348.650394908291</v>
       </c>
       <c r="U10" t="n">
-        <v>713.056571416877</v>
+        <v>63.39432636186739</v>
       </c>
       <c r="V10" t="n">
-        <v>36.07673110158364</v>
+        <v>4968.333118983487</v>
       </c>
       <c r="W10" t="n">
-        <v>2782.115298568264</v>
+        <v>401.8132632957993</v>
       </c>
       <c r="X10" t="n">
-        <v>231.752698228694</v>
+        <v>555.8054285807665</v>
       </c>
       <c r="Y10" t="n">
-        <v>342.5729361541763</v>
+        <v>38.43575574456897</v>
       </c>
       <c r="Z10" t="n">
-        <v>21.69069070562277</v>
+        <v>378.0642144967309</v>
       </c>
       <c r="AA10" t="n">
-        <v>240.5793475007927</v>
+        <v>68.53563253585118</v>
       </c>
       <c r="AB10" t="n">
-        <v>39.25132568861682</v>
+        <v>57433.02980418019</v>
       </c>
       <c r="AC10" t="n">
-        <v>37462.29974664494</v>
+        <v>1914.430316189131</v>
       </c>
       <c r="AD10" t="n">
-        <v>1914.430316189131</v>
+        <v>10822.32464275395</v>
       </c>
       <c r="AE10" t="n">
-        <v>6932.150558931942</v>
+        <v>4395.898025258032</v>
       </c>
       <c r="AF10" t="n">
-        <v>2743.773601128761</v>
+        <v>400.040366666765</v>
       </c>
       <c r="AG10" t="n">
-        <v>250.4465355320802</v>
+        <v>1202.466241845209</v>
       </c>
       <c r="AH10" t="n">
-        <v>722.4337571616874</v>
+        <v>60.53297247529661</v>
       </c>
       <c r="AI10" t="n">
-        <v>38.52015338183931</v>
+        <v>5598.358685493994</v>
       </c>
       <c r="AJ10" t="n">
-        <v>3466.207358290448</v>
+        <v>460.5731231553898</v>
       </c>
       <c r="AK10" t="n">
-        <v>288.9666889139195</v>
+        <v>621.5345941445106</v>
       </c>
       <c r="AL10" t="n">
-        <v>408.2023748188184</v>
+        <v>35.51123155438666</v>
       </c>
       <c r="AM10" t="n">
-        <v>20.81134088499409</v>
+        <v>453.1468580445429</v>
       </c>
       <c r="AN10" t="n">
-        <v>302.8038660782065</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>48.6274347269708</v>
+        <v>80.66639957759145</v>
       </c>
     </row>
     <row r="11">
@@ -1809,85 +1777,82 @@
         <v>149.9265295268788</v>
       </c>
       <c r="O11" t="n">
-        <v>356.7068426557601</v>
+        <v>53004.02743223422</v>
       </c>
       <c r="P11" t="n">
-        <v>32676.27397757157</v>
+        <v>1766.80057688147</v>
       </c>
       <c r="Q11" t="n">
-        <v>1766.80057688147</v>
+        <v>9055.375349182959</v>
       </c>
       <c r="R11" t="n">
-        <v>5248.120382334228</v>
+        <v>3678.835164222778</v>
       </c>
       <c r="S11" t="n">
-        <v>2014.291213839193</v>
+        <v>350.9017007822544</v>
       </c>
       <c r="T11" t="n">
-        <v>197.3692814262555</v>
+        <v>1396.255135370411</v>
       </c>
       <c r="U11" t="n">
-        <v>768.9649693104054</v>
+        <v>66.07605286630721</v>
       </c>
       <c r="V11" t="n">
-        <v>38.84053743289451</v>
+        <v>5075.085528596494</v>
       </c>
       <c r="W11" t="n">
-        <v>2783.256183149599</v>
+        <v>416.9740492662723</v>
       </c>
       <c r="X11" t="n">
-        <v>236.20981885915</v>
+        <v>552.3079830532151</v>
       </c>
       <c r="Y11" t="n">
-        <v>330.1855782724302</v>
+        <v>36.87407666098782</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.75739006601814</v>
+        <v>383.7992612970007</v>
       </c>
       <c r="AA11" t="n">
-        <v>236.4532759959938</v>
+        <v>63.53149402059255</v>
       </c>
       <c r="AB11" t="n">
-        <v>37.50703220586549</v>
+        <v>57344.49144884641</v>
       </c>
       <c r="AC11" t="n">
-        <v>35981.19894452534</v>
+        <v>1911.48264662254</v>
       </c>
       <c r="AD11" t="n">
-        <v>1911.48264662254</v>
+        <v>11631.08436424418</v>
       </c>
       <c r="AE11" t="n">
-        <v>6983.869568030108</v>
+        <v>4777.456275504242</v>
       </c>
       <c r="AF11" t="n">
-        <v>2793.658212717446</v>
+        <v>426.1217814327328</v>
       </c>
       <c r="AG11" t="n">
-        <v>252.4358627905745</v>
+        <v>1392.94273696466</v>
       </c>
       <c r="AH11" t="n">
-        <v>767.8732191094407</v>
+        <v>66.72886848711629</v>
       </c>
       <c r="AI11" t="n">
-        <v>39.00950006575803</v>
+        <v>6170.401761262056</v>
       </c>
       <c r="AJ11" t="n">
-        <v>3561.531431826886</v>
+        <v>492.8503972555591</v>
       </c>
       <c r="AK11" t="n">
-        <v>291.4453628563326</v>
+        <v>631.1756657027203</v>
       </c>
       <c r="AL11" t="n">
-        <v>400.0263930042129</v>
+        <v>30.88149781063973</v>
       </c>
       <c r="AM11" t="n">
-        <v>18.90793069115404</v>
+        <v>443.0660703293346</v>
       </c>
       <c r="AN11" t="n">
-        <v>290.7537396284578</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>48.813210750292</v>
+        <v>81.82215161116777</v>
       </c>
     </row>
     <row r="12">
@@ -1934,85 +1899,82 @@
         <v>161.0606972274034</v>
       </c>
       <c r="O12" t="n">
-        <v>362.8429072273347</v>
+        <v>54388.228943218</v>
       </c>
       <c r="P12" t="n">
-        <v>34979.54856674818</v>
+        <v>1812.943817943313</v>
       </c>
       <c r="Q12" t="n">
-        <v>1812.943817943313</v>
+        <v>9156.772191615857</v>
       </c>
       <c r="R12" t="n">
-        <v>5525.581989734595</v>
+        <v>3771.118256641608</v>
       </c>
       <c r="S12" t="n">
-        <v>2147.097738491931</v>
+        <v>351.6601688202168</v>
       </c>
       <c r="T12" t="n">
-        <v>203.0517915466104</v>
+        <v>1435.787933793297</v>
       </c>
       <c r="U12" t="n">
-        <v>702.0411482364314</v>
+        <v>69.4839706882274</v>
       </c>
       <c r="V12" t="n">
-        <v>38.05741040203903</v>
+        <v>5206.910904468327</v>
       </c>
       <c r="W12" t="n">
-        <v>2849.138886728363</v>
+        <v>421.1466542170803</v>
       </c>
       <c r="X12" t="n">
-        <v>241.1092019486495</v>
+        <v>581.1373151239243</v>
       </c>
       <c r="Y12" t="n">
-        <v>365.8744931687663</v>
+        <v>28.63855025190425</v>
       </c>
       <c r="Z12" t="n">
-        <v>18.71075624402749</v>
+        <v>383.0068166323147</v>
       </c>
       <c r="AA12" t="n">
-        <v>253.1606383227492</v>
+        <v>66.21900487480636</v>
       </c>
       <c r="AB12" t="n">
-        <v>38.78334626230377</v>
+        <v>58807.86954967751</v>
       </c>
       <c r="AC12" t="n">
-        <v>37376.45252442128</v>
+        <v>1960.265973500382</v>
       </c>
       <c r="AD12" t="n">
-        <v>1960.265973500382</v>
+        <v>11892.27486441298</v>
       </c>
       <c r="AE12" t="n">
-        <v>7204.443535861276</v>
+        <v>4621.260961265302</v>
       </c>
       <c r="AF12" t="n">
-        <v>2713.367892361426</v>
+        <v>420.6743681848196</v>
       </c>
       <c r="AG12" t="n">
-        <v>252.5906186298288</v>
+        <v>1201.339090940852</v>
       </c>
       <c r="AH12" t="n">
-        <v>702.4590657423979</v>
+        <v>60.91318315058488</v>
       </c>
       <c r="AI12" t="n">
-        <v>37.50707523200361</v>
+        <v>5822.598124043511</v>
       </c>
       <c r="AJ12" t="n">
-        <v>3415.826958103824</v>
+        <v>481.5899163793178</v>
       </c>
       <c r="AK12" t="n">
-        <v>290.0976938618324</v>
+        <v>656.340720620204</v>
       </c>
       <c r="AL12" t="n">
-        <v>417.3123501738658</v>
+        <v>30.88413238209154</v>
       </c>
       <c r="AM12" t="n">
-        <v>19.01888165003903</v>
+        <v>459.78498220002</v>
       </c>
       <c r="AN12" t="n">
-        <v>298.3102567074392</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>53.06344724255917</v>
+        <v>89.01187566139379</v>
       </c>
     </row>
     <row r="13">
@@ -2059,85 +2021,82 @@
         <v>164.3656293993192</v>
       </c>
       <c r="O13" t="n">
-        <v>352.8912229546512</v>
+        <v>51061.26048411255</v>
       </c>
       <c r="P13" t="n">
-        <v>33930.19888852043</v>
+        <v>1702.043479028215</v>
       </c>
       <c r="Q13" t="n">
-        <v>1702.043479028215</v>
+        <v>8437.609743529683</v>
       </c>
       <c r="R13" t="n">
-        <v>5358.087604154128</v>
+        <v>3420.441848267439</v>
       </c>
       <c r="S13" t="n">
-        <v>2108.102964845312</v>
+        <v>338.1977288339768</v>
       </c>
       <c r="T13" t="n">
-        <v>207.7070482873705</v>
+        <v>1271.47764545906</v>
       </c>
       <c r="U13" t="n">
-        <v>763.6226526056601</v>
+        <v>61.21869253595439</v>
       </c>
       <c r="V13" t="n">
-        <v>39.02816625939533</v>
+        <v>4691.918156577574</v>
       </c>
       <c r="W13" t="n">
-        <v>2871.725617450972</v>
+        <v>399.4130499196158</v>
       </c>
       <c r="X13" t="n">
-        <v>246.7352145467658</v>
+        <v>570.7697771507916</v>
       </c>
       <c r="Y13" t="n">
-        <v>369.6641733978226</v>
+        <v>33.39796682852883</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.87833768935605</v>
+        <v>378.6740240494907</v>
       </c>
       <c r="AA13" t="n">
-        <v>250.9407832718657</v>
+        <v>62.11977101834182</v>
       </c>
       <c r="AB13" t="n">
-        <v>39.61217378579613</v>
+        <v>55162.94191362645</v>
       </c>
       <c r="AC13" t="n">
-        <v>39711.14001490673</v>
+        <v>1838.766029897558</v>
       </c>
       <c r="AD13" t="n">
-        <v>1838.766029897558</v>
+        <v>10791.81278340127</v>
       </c>
       <c r="AE13" t="n">
-        <v>7529.407249090235</v>
+        <v>4310.067164466617</v>
       </c>
       <c r="AF13" t="n">
-        <v>2928.213832357057</v>
+        <v>385.0169425366906</v>
       </c>
       <c r="AG13" t="n">
-        <v>272.9805577418713</v>
+        <v>1092.563222244529</v>
       </c>
       <c r="AH13" t="n">
-        <v>770.4982109260803</v>
+        <v>56.42951096811862</v>
       </c>
       <c r="AI13" t="n">
-        <v>40.3452107989558</v>
+        <v>5402.634285064547</v>
       </c>
       <c r="AJ13" t="n">
-        <v>3698.712043283137</v>
+        <v>441.4471013455686</v>
       </c>
       <c r="AK13" t="n">
-        <v>313.3257685408271</v>
+        <v>622.1903266700659</v>
       </c>
       <c r="AL13" t="n">
-        <v>449.883135629417</v>
+        <v>31.89275888164905</v>
       </c>
       <c r="AM13" t="n">
-        <v>21.89705780888228</v>
+        <v>454.6193802838322</v>
       </c>
       <c r="AN13" t="n">
-        <v>330.5884006778904</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>56.23887926353881</v>
+        <v>80.15907214993403</v>
       </c>
     </row>
     <row r="14">
@@ -2184,85 +2143,82 @@
         <v>159.240227074863</v>
       </c>
       <c r="O14" t="n">
-        <v>364.5159506789662</v>
+        <v>53378.67972298591</v>
       </c>
       <c r="P14" t="n">
-        <v>33160.38221924418</v>
+        <v>1779.290557658623</v>
       </c>
       <c r="Q14" t="n">
-        <v>1779.290557658623</v>
+        <v>9114.520550568302</v>
       </c>
       <c r="R14" t="n">
-        <v>5266.250051306959</v>
+        <v>3680.351412254784</v>
       </c>
       <c r="S14" t="n">
-        <v>2002.993219818027</v>
+        <v>354.1354268437919</v>
       </c>
       <c r="T14" t="n">
-        <v>193.264278389522</v>
+        <v>1326.113583400521</v>
       </c>
       <c r="U14" t="n">
-        <v>702.752422015025</v>
+        <v>69.92628877480249</v>
       </c>
       <c r="V14" t="n">
-        <v>37.13535177334899</v>
+        <v>5006.460724020168</v>
       </c>
       <c r="W14" t="n">
-        <v>2705.745641833052</v>
+        <v>424.0641178619272</v>
       </c>
       <c r="X14" t="n">
-        <v>230.3996301628709</v>
+        <v>577.9136549233759</v>
       </c>
       <c r="Y14" t="n">
-        <v>353.9626733544795</v>
+        <v>31.64249483012892</v>
       </c>
       <c r="Z14" t="n">
-        <v>18.3650888969801</v>
+        <v>395.6254125998088</v>
       </c>
       <c r="AA14" t="n">
-        <v>251.0686378146741</v>
+        <v>61.40316350565369</v>
       </c>
       <c r="AB14" t="n">
-        <v>36.86969841708385</v>
+        <v>58185.39117010737</v>
       </c>
       <c r="AC14" t="n">
-        <v>38650.68795811948</v>
+        <v>1939.511723118712</v>
       </c>
       <c r="AD14" t="n">
-        <v>1939.511723118712</v>
+        <v>11717.97140855455</v>
       </c>
       <c r="AE14" t="n">
-        <v>7347.758479647561</v>
+        <v>4691.145695423574</v>
       </c>
       <c r="AF14" t="n">
-        <v>2802.475316190507</v>
+        <v>431.8636097622391</v>
       </c>
       <c r="AG14" t="n">
-        <v>264.1410666747082</v>
+        <v>1310.77123354899</v>
       </c>
       <c r="AH14" t="n">
-        <v>761.7440575178661</v>
+        <v>63.59558602476399</v>
       </c>
       <c r="AI14" t="n">
-        <v>39.83147189967301</v>
+        <v>6001.917681743232</v>
       </c>
       <c r="AJ14" t="n">
-        <v>3564.219373708373</v>
+        <v>495.4654464700823</v>
       </c>
       <c r="AK14" t="n">
-        <v>303.9725385743812</v>
+        <v>668.4128610105161</v>
       </c>
       <c r="AL14" t="n">
-        <v>451.0340307098995</v>
+        <v>35.43360799101622</v>
       </c>
       <c r="AM14" t="n">
-        <v>21.44594689917259</v>
+        <v>483.073329430751</v>
       </c>
       <c r="AN14" t="n">
-        <v>332.8944587241662</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>57.63256294711296</v>
+        <v>89.48787905419904</v>
       </c>
     </row>
     <row r="15">
@@ -2309,85 +2265,82 @@
         <v>163.0557203831304</v>
       </c>
       <c r="O15" t="n">
-        <v>368.746993747209</v>
+        <v>55063.62601011772</v>
       </c>
       <c r="P15" t="n">
-        <v>34153.65616321275</v>
+        <v>1835.451728246692</v>
       </c>
       <c r="Q15" t="n">
-        <v>1835.451728246692</v>
+        <v>9407.156623288642</v>
       </c>
       <c r="R15" t="n">
-        <v>5482.335743614498</v>
+        <v>3799.315388337558</v>
       </c>
       <c r="S15" t="n">
-        <v>2113.400985033573</v>
+        <v>340.8296523378705</v>
       </c>
       <c r="T15" t="n">
-        <v>196.7215137796552</v>
+        <v>1353.451939722506</v>
       </c>
       <c r="U15" t="n">
-        <v>758.1109656724964</v>
+        <v>60.2501098136953</v>
       </c>
       <c r="V15" t="n">
-        <v>35.96023728717072</v>
+        <v>5152.76360557814</v>
       </c>
       <c r="W15" t="n">
-        <v>2871.511950706069</v>
+        <v>401.0835882064561</v>
       </c>
       <c r="X15" t="n">
-        <v>232.6817510668259</v>
+        <v>589.8165386491993</v>
       </c>
       <c r="Y15" t="n">
-        <v>358.1737248052278</v>
+        <v>34.86524280630805</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.91861954782551</v>
+        <v>402.7236942154376</v>
       </c>
       <c r="AA15" t="n">
-        <v>256.2025396397545</v>
+        <v>62.7829242833631</v>
       </c>
       <c r="AB15" t="n">
-        <v>37.3611571012048</v>
+        <v>59151.17244448738</v>
       </c>
       <c r="AC15" t="n">
-        <v>38814.34965000318</v>
+        <v>1971.701964166943</v>
       </c>
       <c r="AD15" t="n">
-        <v>1971.701964166943</v>
+        <v>11805.32517514374</v>
       </c>
       <c r="AE15" t="n">
-        <v>7507.505862311125</v>
+        <v>4702.267673565411</v>
       </c>
       <c r="AF15" t="n">
-        <v>2949.381498901207</v>
+        <v>413.9666862993723</v>
       </c>
       <c r="AG15" t="n">
-        <v>265.549699912373</v>
+        <v>1214.271175850235</v>
       </c>
       <c r="AH15" t="n">
-        <v>777.6044518169961</v>
+        <v>58.77840336079213</v>
       </c>
       <c r="AI15" t="n">
-        <v>40.09907418037184</v>
+        <v>5916.535184931403</v>
       </c>
       <c r="AJ15" t="n">
-        <v>3726.985950718203</v>
+        <v>472.742644511551</v>
       </c>
       <c r="AK15" t="n">
-        <v>305.6487740927449</v>
+        <v>667.6657230356611</v>
       </c>
       <c r="AL15" t="n">
-        <v>442.3740274011715</v>
+        <v>31.76709914831254</v>
       </c>
       <c r="AM15" t="n">
-        <v>21.01776252284717</v>
+        <v>470.6912649480215</v>
       </c>
       <c r="AN15" t="n">
-        <v>316.0127809374966</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>58.61480589194816</v>
+        <v>89.21810242119851</v>
       </c>
     </row>
     <row r="16">
@@ -2434,85 +2387,82 @@
         <v>165.2338088333203</v>
       </c>
       <c r="O16" t="n">
-        <v>349.4124995417324</v>
+        <v>50804.65138680996</v>
       </c>
       <c r="P16" t="n">
-        <v>34870.78351307155</v>
+        <v>1693.485488569228</v>
       </c>
       <c r="Q16" t="n">
-        <v>1693.485488569228</v>
+        <v>8823.413028422481</v>
       </c>
       <c r="R16" t="n">
-        <v>5738.372325145431</v>
+        <v>3539.333923884428</v>
       </c>
       <c r="S16" t="n">
-        <v>2176.722041298568</v>
+        <v>343.2219011831122</v>
       </c>
       <c r="T16" t="n">
-        <v>211.5784772052781</v>
+        <v>1217.693240883364</v>
       </c>
       <c r="U16" t="n">
-        <v>745.2736737024413</v>
+        <v>59.22407217979078</v>
       </c>
       <c r="V16" t="n">
-        <v>38.01542827297234</v>
+        <v>4757.027211101298</v>
       </c>
       <c r="W16" t="n">
-        <v>2921.995715001009</v>
+        <v>402.4526021135961</v>
       </c>
       <c r="X16" t="n">
-        <v>249.5939054782504</v>
+        <v>590.0598620968046</v>
       </c>
       <c r="Y16" t="n">
-        <v>397.1629560974191</v>
+        <v>35.67038641406665</v>
       </c>
       <c r="Z16" t="n">
-        <v>22.18579219789166</v>
+        <v>407.1504271592062</v>
       </c>
       <c r="AA16" t="n">
-        <v>281.52180776386</v>
+        <v>59.87853846411236</v>
       </c>
       <c r="AB16" t="n">
-        <v>39.20794387383315</v>
+        <v>54951.69719616298</v>
       </c>
       <c r="AC16" t="n">
-        <v>38420.46194901121</v>
+        <v>1831.727886174669</v>
       </c>
       <c r="AD16" t="n">
-        <v>1831.727886174669</v>
+        <v>10936.88861310425</v>
       </c>
       <c r="AE16" t="n">
-        <v>7421.845455461015</v>
+        <v>4461.751661024437</v>
       </c>
       <c r="AF16" t="n">
-        <v>2968.564537803889</v>
+        <v>412.3616513793375</v>
       </c>
       <c r="AG16" t="n">
-        <v>271.6107580746669</v>
+        <v>1176.102930135525</v>
       </c>
       <c r="AH16" t="n">
-        <v>768.8495721802376</v>
+        <v>59.69914890913578</v>
       </c>
       <c r="AI16" t="n">
-        <v>39.90369559749911</v>
+        <v>5637.860685753499</v>
       </c>
       <c r="AJ16" t="n">
-        <v>3737.414109984127</v>
+        <v>472.0527189766062</v>
       </c>
       <c r="AK16" t="n">
-        <v>311.514453672166</v>
+        <v>653.0302446458057</v>
       </c>
       <c r="AL16" t="n">
-        <v>464.6241538032771</v>
+        <v>31.9813571523975</v>
       </c>
       <c r="AM16" t="n">
-        <v>22.01818886205987</v>
+        <v>462.7021565056575</v>
       </c>
       <c r="AN16" t="n">
-        <v>334.3307441377794</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>56.62462215153366</v>
+        <v>81.96906573420706</v>
       </c>
     </row>
     <row r="17">
@@ -2559,85 +2509,82 @@
         <v>177.2337111596316</v>
       </c>
       <c r="O17" t="n">
-        <v>364.5519040422809</v>
+        <v>53273.79443560074</v>
       </c>
       <c r="P17" t="n">
-        <v>34520.47112765588</v>
+        <v>1775.793466683581</v>
       </c>
       <c r="Q17" t="n">
-        <v>1775.793466683581</v>
+        <v>9371.177309306748</v>
       </c>
       <c r="R17" t="n">
-        <v>5779.408153426171</v>
+        <v>3865.978776193746</v>
       </c>
       <c r="S17" t="n">
-        <v>2323.72251541496</v>
+        <v>375.5103969148208</v>
       </c>
       <c r="T17" t="n">
-        <v>225.418225170198</v>
+        <v>1603.802521905583</v>
       </c>
       <c r="U17" t="n">
-        <v>857.0591866640407</v>
+        <v>73.59622379401188</v>
       </c>
       <c r="V17" t="n">
-        <v>42.29691746533702</v>
+        <v>5469.780040038709</v>
       </c>
       <c r="W17" t="n">
-        <v>3180.781702079</v>
+        <v>449.1012805821001</v>
       </c>
       <c r="X17" t="n">
-        <v>267.715142635535</v>
+        <v>605.3865853870329</v>
       </c>
       <c r="Y17" t="n">
-        <v>383.2453414252277</v>
+        <v>38.6597465864604</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.55731925276078</v>
+        <v>385.8975137028319</v>
       </c>
       <c r="AA17" t="n">
-        <v>255.5343560085428</v>
+        <v>62.18573619579438</v>
       </c>
       <c r="AB17" t="n">
-        <v>38.82091612655685</v>
+        <v>57466.36823857186</v>
       </c>
       <c r="AC17" t="n">
-        <v>41266.73963091589</v>
+        <v>1915.544995327543</v>
       </c>
       <c r="AD17" t="n">
-        <v>1915.544995327543</v>
+        <v>11562.4421218785</v>
       </c>
       <c r="AE17" t="n">
-        <v>8074.404230903764</v>
+        <v>4660.724985528471</v>
       </c>
       <c r="AF17" t="n">
-        <v>3121.238233070117</v>
+        <v>418.3299444225066</v>
       </c>
       <c r="AG17" t="n">
-        <v>285.7746358374948</v>
+        <v>1300.462310741084</v>
       </c>
       <c r="AH17" t="n">
-        <v>790.7414670874272</v>
+        <v>58.97861226029261</v>
       </c>
       <c r="AI17" t="n">
-        <v>39.19913755251397</v>
+        <v>5961.189327377321</v>
       </c>
       <c r="AJ17" t="n">
-        <v>3911.979700157544</v>
+        <v>477.3076290523458</v>
       </c>
       <c r="AK17" t="n">
-        <v>324.9737733900088</v>
+        <v>676.1003017302736</v>
       </c>
       <c r="AL17" t="n">
-        <v>492.3733148327652</v>
+        <v>31.89893887407679</v>
       </c>
       <c r="AM17" t="n">
-        <v>22.05104527146473</v>
+        <v>491.9403615956994</v>
       </c>
       <c r="AN17" t="n">
-        <v>359.7080971710973</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>63.74848230678472</v>
+        <v>88.06640973049534</v>
       </c>
     </row>
     <row r="18">
@@ -2684,85 +2631,82 @@
         <v>163.7969619704703</v>
       </c>
       <c r="O18" t="n">
-        <v>371.1692731847532</v>
+        <v>55952.76311400071</v>
       </c>
       <c r="P18" t="n">
-        <v>34652.50597874288</v>
+        <v>1865.093276425389</v>
       </c>
       <c r="Q18" t="n">
-        <v>1865.093276425389</v>
+        <v>9795.817358638444</v>
       </c>
       <c r="R18" t="n">
-        <v>5797.480749560931</v>
+        <v>3919.28594500407</v>
       </c>
       <c r="S18" t="n">
-        <v>2227.793248712901</v>
+        <v>366.01635050266</v>
       </c>
       <c r="T18" t="n">
-        <v>212.3498865936589</v>
+        <v>1437.117952875089</v>
       </c>
       <c r="U18" t="n">
-        <v>774.3762675743308</v>
+        <v>69.21462370779496</v>
       </c>
       <c r="V18" t="n">
-        <v>38.87832827428608</v>
+        <v>5356.402147393082</v>
       </c>
       <c r="W18" t="n">
-        <v>3002.169516287232</v>
+        <v>435.228463384846</v>
       </c>
       <c r="X18" t="n">
-        <v>251.228214867945</v>
+        <v>609.5727369977392</v>
       </c>
       <c r="Y18" t="n">
-        <v>373.440657581657</v>
+        <v>38.27840094735913</v>
       </c>
       <c r="Z18" t="n">
-        <v>22.65799066546928</v>
+        <v>403.9984915377627</v>
       </c>
       <c r="AA18" t="n">
-        <v>255.9697627534771</v>
+        <v>64.9085120641531</v>
       </c>
       <c r="AB18" t="n">
-        <v>38.93773322829957</v>
+        <v>60296.75008187649</v>
       </c>
       <c r="AC18" t="n">
-        <v>38131.24878756508</v>
+        <v>2009.889238413165</v>
       </c>
       <c r="AD18" t="n">
-        <v>2009.889238413165</v>
+        <v>12364.44149342513</v>
       </c>
       <c r="AE18" t="n">
-        <v>7550.4353470787</v>
+        <v>4886.314113322198</v>
       </c>
       <c r="AF18" t="n">
-        <v>2878.554699645098</v>
+        <v>453.0155272084334</v>
       </c>
       <c r="AG18" t="n">
-        <v>266.8761045952548</v>
+        <v>1374.925971922833</v>
       </c>
       <c r="AH18" t="n">
-        <v>765.0002675139573</v>
+        <v>66.41194670992191</v>
       </c>
       <c r="AI18" t="n">
-        <v>39.65006920477234</v>
+        <v>6261.237633984658</v>
       </c>
       <c r="AJ18" t="n">
-        <v>3643.554967159055</v>
+        <v>519.4268718019877</v>
       </c>
       <c r="AK18" t="n">
-        <v>306.5261738000272</v>
+        <v>679.0524615453643</v>
       </c>
       <c r="AL18" t="n">
-        <v>431.3081580479435</v>
+        <v>34.43734017787987</v>
       </c>
       <c r="AM18" t="n">
-        <v>20.9150989964033</v>
+        <v>481.5510699789247</v>
       </c>
       <c r="AN18" t="n">
-        <v>312.4668879903775</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>52.57122531355535</v>
+        <v>86.65653113589539</v>
       </c>
     </row>
     <row r="19">
@@ -2809,85 +2753,82 @@
         <v>174.0317190641597</v>
       </c>
       <c r="O19" t="n">
-        <v>363.6162938938818</v>
+        <v>53296.76897929262</v>
       </c>
       <c r="P19" t="n">
-        <v>34802.5095635289</v>
+        <v>1776.560124712674</v>
       </c>
       <c r="Q19" t="n">
-        <v>1776.560124712674</v>
+        <v>8966.318088455144</v>
       </c>
       <c r="R19" t="n">
-        <v>5668.837986835325</v>
+        <v>3721.077257924508</v>
       </c>
       <c r="S19" t="n">
-        <v>2213.660920517565</v>
+        <v>363.8290059999512</v>
       </c>
       <c r="T19" t="n">
-        <v>216.8714167570225</v>
+        <v>1370.079635534091</v>
       </c>
       <c r="U19" t="n">
-        <v>758.1350705546599</v>
+        <v>71.08240077396682</v>
       </c>
       <c r="V19" t="n">
-        <v>41.46044180945467</v>
+        <v>5091.155140460473</v>
       </c>
       <c r="W19" t="n">
-        <v>2971.795991072225</v>
+        <v>434.9064340034575</v>
       </c>
       <c r="X19" t="n">
-        <v>258.3318585664771</v>
+        <v>605.9309066628383</v>
       </c>
       <c r="Y19" t="n">
-        <v>381.6323918580702</v>
+        <v>39.88822073113631</v>
       </c>
       <c r="Z19" t="n">
-        <v>23.10947970889571</v>
+        <v>406.5908997322121</v>
       </c>
       <c r="AA19" t="n">
-        <v>265.1575976424191</v>
+        <v>60.35841465456836</v>
       </c>
       <c r="AB19" t="n">
-        <v>39.35581018209855</v>
+        <v>57019.47396260374</v>
       </c>
       <c r="AC19" t="n">
-        <v>39593.73958344679</v>
+        <v>1900.650381494856</v>
       </c>
       <c r="AD19" t="n">
-        <v>1900.650381494856</v>
+        <v>11409.15704124155</v>
       </c>
       <c r="AE19" t="n">
-        <v>7697.174337842813</v>
+        <v>4633.075935661483</v>
       </c>
       <c r="AF19" t="n">
-        <v>3014.338791908527</v>
+        <v>435.7015687812996</v>
       </c>
       <c r="AG19" t="n">
-        <v>284.004852665844</v>
+        <v>1329.99112394049</v>
       </c>
       <c r="AH19" t="n">
-        <v>838.1325238841921</v>
+        <v>68.66675196595141</v>
       </c>
       <c r="AI19" t="n">
-        <v>44.70990568787407</v>
+        <v>5963.068516161998</v>
       </c>
       <c r="AJ19" t="n">
-        <v>3852.471315792719</v>
+        <v>504.3639049448772</v>
       </c>
       <c r="AK19" t="n">
-        <v>328.7147583537181</v>
+        <v>687.4148885338532</v>
       </c>
       <c r="AL19" t="n">
-        <v>472.5230439038378</v>
+        <v>38.40393651502157</v>
       </c>
       <c r="AM19" t="n">
-        <v>24.30454436631404</v>
+        <v>475.129463043089</v>
       </c>
       <c r="AN19" t="n">
-        <v>342.0109846256096</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>61.29177914872039</v>
+        <v>90.27321882482006</v>
       </c>
     </row>
     <row r="20">
@@ -2934,85 +2875,82 @@
         <v>161.5793363600993</v>
       </c>
       <c r="O20" t="n">
-        <v>369.0574254443132</v>
+        <v>56543.3395929023</v>
       </c>
       <c r="P20" t="n">
-        <v>34853.40312704899</v>
+        <v>1884.778337316671</v>
       </c>
       <c r="Q20" t="n">
-        <v>1884.778337316671</v>
+        <v>9833.822788326623</v>
       </c>
       <c r="R20" t="n">
-        <v>5681.809130001976</v>
+        <v>3977.800211077437</v>
       </c>
       <c r="S20" t="n">
-        <v>2206.378985353658</v>
+        <v>371.9333563624584</v>
       </c>
       <c r="T20" t="n">
-        <v>210.4065972913382</v>
+        <v>1431.571549636714</v>
       </c>
       <c r="U20" t="n">
-        <v>771.6474791442565</v>
+        <v>63.40136276635694</v>
       </c>
       <c r="V20" t="n">
-        <v>37.8985781145151</v>
+        <v>5409.370597408007</v>
       </c>
       <c r="W20" t="n">
-        <v>2978.026464497915</v>
+        <v>435.3341153762773</v>
       </c>
       <c r="X20" t="n">
-        <v>248.3051754058533</v>
+        <v>607.7253979503972</v>
       </c>
       <c r="Y20" t="n">
-        <v>369.1727087721927</v>
+        <v>30.12977472457188</v>
       </c>
       <c r="Z20" t="n">
-        <v>19.14898458196634</v>
+        <v>407.3643852343695</v>
       </c>
       <c r="AA20" t="n">
-        <v>255.5356221725654</v>
+        <v>66.40130036102822</v>
       </c>
       <c r="AB20" t="n">
-        <v>38.14867649010792</v>
+        <v>60036.35352162564</v>
       </c>
       <c r="AC20" t="n">
-        <v>39804.21191445526</v>
+        <v>2001.209959528599</v>
       </c>
       <c r="AD20" t="n">
-        <v>2001.209959528599</v>
+        <v>11913.87090979609</v>
       </c>
       <c r="AE20" t="n">
-        <v>7672.857580795296</v>
+        <v>4740.002987072651</v>
       </c>
       <c r="AF20" t="n">
-        <v>2957.941541008802</v>
+        <v>430.2667598417486</v>
       </c>
       <c r="AG20" t="n">
-        <v>272.3414838503735</v>
+        <v>1278.793055723</v>
       </c>
       <c r="AH20" t="n">
-        <v>760.4282002392974</v>
+        <v>62.72729511949534</v>
       </c>
       <c r="AI20" t="n">
-        <v>38.6011647269945</v>
+        <v>6018.800842776261</v>
       </c>
       <c r="AJ20" t="n">
-        <v>3718.3697412481</v>
+        <v>492.9991085104403</v>
       </c>
       <c r="AK20" t="n">
-        <v>310.942648577368</v>
+        <v>670.5984187618513</v>
       </c>
       <c r="AL20" t="n">
-        <v>446.8962789123676</v>
+        <v>30.18996019101197</v>
       </c>
       <c r="AM20" t="n">
-        <v>20.1196367304758</v>
+        <v>493.6774980693694</v>
       </c>
       <c r="AN20" t="n">
-        <v>333.1067528941963</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>55.91472841959248</v>
+        <v>87.37468610345856</v>
       </c>
     </row>
     <row r="21">
@@ -3059,85 +2997,82 @@
         <v>173.1346221597277</v>
       </c>
       <c r="O21" t="n">
-        <v>350.3409050666961</v>
+        <v>52853.5755015168</v>
       </c>
       <c r="P21" t="n">
-        <v>35336.62978239948</v>
+        <v>1761.786437269759</v>
       </c>
       <c r="Q21" t="n">
-        <v>1761.786437269759</v>
+        <v>9133.685610651663</v>
       </c>
       <c r="R21" t="n">
-        <v>5819.687328182057</v>
+        <v>3700.617652442977</v>
       </c>
       <c r="S21" t="n">
-        <v>2260.074755218823</v>
+        <v>352.5577495570951</v>
       </c>
       <c r="T21" t="n">
-        <v>219.4256667998143</v>
+        <v>1263.767550920715</v>
       </c>
       <c r="U21" t="n">
-        <v>760.7238152833623</v>
+        <v>62.67826798481249</v>
       </c>
       <c r="V21" t="n">
-        <v>40.58690001490015</v>
+        <v>4964.386402293481</v>
       </c>
       <c r="W21" t="n">
-        <v>3020.798570502185</v>
+        <v>415.2408226532107</v>
       </c>
       <c r="X21" t="n">
-        <v>260.0125668147145</v>
+        <v>606.2972508238323</v>
       </c>
       <c r="Y21" t="n">
-        <v>390.6001580732855</v>
+        <v>30.2187137921549</v>
       </c>
       <c r="Z21" t="n">
-        <v>19.27179634598745</v>
+        <v>422.4972885737556</v>
       </c>
       <c r="AA21" t="n">
-        <v>279.7372366599432</v>
+        <v>58.03646254932226</v>
       </c>
       <c r="AB21" t="n">
-        <v>37.35429706955848</v>
+        <v>56948.2152852149</v>
       </c>
       <c r="AC21" t="n">
-        <v>40870.85441200417</v>
+        <v>1898.275254994213</v>
       </c>
       <c r="AD21" t="n">
-        <v>1898.275254994213</v>
+        <v>11378.63265297521</v>
       </c>
       <c r="AE21" t="n">
-        <v>7903.315592065319</v>
+        <v>4564.250126117496</v>
       </c>
       <c r="AF21" t="n">
-        <v>3071.981669813688</v>
+        <v>411.6705901698277</v>
       </c>
       <c r="AG21" t="n">
-        <v>281.8762776835081</v>
+        <v>1113.966662517926</v>
       </c>
       <c r="AH21" t="n">
-        <v>758.9566559774577</v>
+        <v>56.54700671292475</v>
       </c>
       <c r="AI21" t="n">
-        <v>39.68906825557044</v>
+        <v>5678.222382771959</v>
       </c>
       <c r="AJ21" t="n">
-        <v>3830.938325791146</v>
+        <v>468.2206636559442</v>
       </c>
       <c r="AK21" t="n">
-        <v>321.5653459390785</v>
+        <v>666.9919596506614</v>
       </c>
       <c r="AL21" t="n">
-        <v>475.5607592963159</v>
+        <v>31.12041415366862</v>
       </c>
       <c r="AM21" t="n">
-        <v>20.61889754408357</v>
+        <v>489.9054597574496</v>
       </c>
       <c r="AN21" t="n">
-        <v>356.1625301063092</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>61.2635154833785</v>
+        <v>91.4926475790672</v>
       </c>
     </row>
     <row r="22">
@@ -3184,85 +3119,82 @@
         <v>164.837090159796</v>
       </c>
       <c r="O22" t="n">
-        <v>367.0060328956951</v>
+        <v>54652.09227781246</v>
       </c>
       <c r="P22" t="n">
-        <v>33557.29209303834</v>
+        <v>1821.734408223943</v>
       </c>
       <c r="Q22" t="n">
-        <v>1821.734408223943</v>
+        <v>9556.860925287527</v>
       </c>
       <c r="R22" t="n">
-        <v>5513.957615384515</v>
+        <v>3886.657151512297</v>
       </c>
       <c r="S22" t="n">
-        <v>2126.836253679905</v>
+        <v>362.0805818473679</v>
       </c>
       <c r="T22" t="n">
-        <v>205.1865483885826</v>
+        <v>1334.962735662607</v>
       </c>
       <c r="U22" t="n">
-        <v>736.5268899032787</v>
+        <v>64.46029527948359</v>
       </c>
       <c r="V22" t="n">
-        <v>37.65951658783187</v>
+        <v>5221.60941392126</v>
       </c>
       <c r="W22" t="n">
-        <v>2863.363143583184</v>
+        <v>426.536670884236</v>
       </c>
       <c r="X22" t="n">
-        <v>242.8460649764145</v>
+        <v>597.7951538614865</v>
       </c>
       <c r="Y22" t="n">
-        <v>354.3549076791733</v>
+        <v>36.64347771536327</v>
       </c>
       <c r="Z22" t="n">
-        <v>21.53332561506372</v>
+        <v>401.9573223751383</v>
       </c>
       <c r="AA22" t="n">
-        <v>247.0099379412214</v>
+        <v>70.6271177940382</v>
       </c>
       <c r="AB22" t="n">
-        <v>41.0498179103769</v>
+        <v>59287.58434733799</v>
       </c>
       <c r="AC22" t="n">
-        <v>38975.82716404035</v>
+        <v>1976.252067804881</v>
       </c>
       <c r="AD22" t="n">
-        <v>1976.252067804881</v>
+        <v>11939.03288124073</v>
       </c>
       <c r="AE22" t="n">
-        <v>7507.055754692768</v>
+        <v>4633.041769753433</v>
       </c>
       <c r="AF22" t="n">
-        <v>2844.701949188186</v>
+        <v>421.0359485540069</v>
       </c>
       <c r="AG22" t="n">
-        <v>261.8313998304793</v>
+        <v>1170.668305523716</v>
       </c>
       <c r="AH22" t="n">
-        <v>708.7914767733904</v>
+        <v>61.27383992176809</v>
       </c>
       <c r="AI22" t="n">
-        <v>37.36031490682969</v>
+        <v>5803.710709589481</v>
       </c>
       <c r="AJ22" t="n">
-        <v>3553.493425961577</v>
+        <v>482.3072387569592</v>
       </c>
       <c r="AK22" t="n">
-        <v>299.1917147373089</v>
+        <v>667.2931546511421</v>
       </c>
       <c r="AL22" t="n">
-        <v>441.1204265218783</v>
+        <v>34.89169161233982</v>
       </c>
       <c r="AM22" t="n">
-        <v>21.37766295736522</v>
+        <v>478.3350500622894</v>
       </c>
       <c r="AN22" t="n">
-        <v>323.3416196791931</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>54.58319317924746</v>
+        <v>86.02652171251347</v>
       </c>
     </row>
     <row r="23">
@@ -3309,85 +3241,82 @@
         <v>162.8793525760322</v>
       </c>
       <c r="O23" t="n">
-        <v>358.3629152825779</v>
+        <v>54213.9098214097</v>
       </c>
       <c r="P23" t="n">
-        <v>33118.50426628669</v>
+        <v>1807.125561239079</v>
       </c>
       <c r="Q23" t="n">
-        <v>1807.125561239079</v>
+        <v>9753.837707515095</v>
       </c>
       <c r="R23" t="n">
-        <v>5737.064331043517</v>
+        <v>3964.80123592264</v>
       </c>
       <c r="S23" t="n">
-        <v>2221.691341826839</v>
+        <v>370.0947474974286</v>
       </c>
       <c r="T23" t="n">
-        <v>209.5286527045599</v>
+        <v>1392.098407295059</v>
       </c>
       <c r="U23" t="n">
-        <v>743.236143853255</v>
+        <v>67.53162151644916</v>
       </c>
       <c r="V23" t="n">
-        <v>39.08297917170572</v>
+        <v>5356.898578324251</v>
       </c>
       <c r="W23" t="n">
-        <v>2964.927485680094</v>
+        <v>437.6325571522468</v>
       </c>
       <c r="X23" t="n">
-        <v>248.6116318762656</v>
+        <v>593.0275142406169</v>
       </c>
       <c r="Y23" t="n">
-        <v>353.58239217139</v>
+        <v>32.97701665971568</v>
       </c>
       <c r="Z23" t="n">
-        <v>18.57863709044905</v>
+        <v>392.1354355154988</v>
       </c>
       <c r="AA23" t="n">
-        <v>245.521249665915</v>
+        <v>71.54456772201634</v>
       </c>
       <c r="AB23" t="n">
-        <v>38.69975304944146</v>
+        <v>57244.44658736381</v>
       </c>
       <c r="AC23" t="n">
-        <v>39346.54538521278</v>
+        <v>1908.146689764558</v>
       </c>
       <c r="AD23" t="n">
-        <v>1908.146689764558</v>
+        <v>11741.02945535169</v>
       </c>
       <c r="AE23" t="n">
-        <v>7833.620897836723</v>
+        <v>4387.961365800717</v>
       </c>
       <c r="AF23" t="n">
-        <v>2946.759148197131</v>
+        <v>395.5167662947317</v>
       </c>
       <c r="AG23" t="n">
-        <v>272.183980757816</v>
+        <v>1074.04883596666</v>
       </c>
       <c r="AH23" t="n">
-        <v>761.4266267929759</v>
+        <v>58.54035391287674</v>
       </c>
       <c r="AI23" t="n">
-        <v>41.06967853943818</v>
+        <v>5462.013302402812</v>
       </c>
       <c r="AJ23" t="n">
-        <v>3708.185774990107</v>
+        <v>454.062652919701</v>
       </c>
       <c r="AK23" t="n">
-        <v>313.2536592972542</v>
+        <v>633.4073014248793</v>
       </c>
       <c r="AL23" t="n">
-        <v>438.0952920996752</v>
+        <v>31.85836253806809</v>
       </c>
       <c r="AM23" t="n">
-        <v>20.82479562373715</v>
+        <v>457.6656750139746</v>
       </c>
       <c r="AN23" t="n">
-        <v>320.7868781990574</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>55.54652753426353</v>
+        <v>84.73034127799404</v>
       </c>
     </row>
     <row r="24">
@@ -3434,85 +3363,82 @@
         <v>163.3564708673847</v>
       </c>
       <c r="O24" t="n">
-        <v>370.7841293791586</v>
+        <v>55395.606917536</v>
       </c>
       <c r="P24" t="n">
-        <v>32797.69540677284</v>
+        <v>1846.523390434059</v>
       </c>
       <c r="Q24" t="n">
-        <v>1846.523390434059</v>
+        <v>9614.828421521439</v>
       </c>
       <c r="R24" t="n">
-        <v>5533.398344778965</v>
+        <v>3979.988920392846</v>
       </c>
       <c r="S24" t="n">
-        <v>2094.198869933012</v>
+        <v>370.3301453718103</v>
       </c>
       <c r="T24" t="n">
-        <v>196.8314938548286</v>
+        <v>1347.5078283446</v>
       </c>
       <c r="U24" t="n">
-        <v>703.664400692811</v>
+        <v>72.2484621597719</v>
       </c>
       <c r="V24" t="n">
-        <v>37.51818860669984</v>
+        <v>5327.499670855997</v>
       </c>
       <c r="W24" t="n">
-        <v>2797.863270625823</v>
+        <v>442.5725936911604</v>
       </c>
       <c r="X24" t="n">
-        <v>234.3496824615285</v>
+        <v>609.5305759276507</v>
       </c>
       <c r="Y24" t="n">
-        <v>348.6101206281958</v>
+        <v>34.36836701048707</v>
       </c>
       <c r="Z24" t="n">
-        <v>19.94497200673651</v>
+        <v>407.258214242553</v>
       </c>
       <c r="AA24" t="n">
-        <v>239.4829410125811</v>
+        <v>67.42630251721737</v>
       </c>
       <c r="AB24" t="n">
-        <v>38.70989414751534</v>
+        <v>59907.30660630179</v>
       </c>
       <c r="AC24" t="n">
-        <v>37585.86922385525</v>
+        <v>1996.915312314317</v>
       </c>
       <c r="AD24" t="n">
-        <v>1996.915312314317</v>
+        <v>12119.72409540941</v>
       </c>
       <c r="AE24" t="n">
-        <v>7401.804419679057</v>
+        <v>4830.910572835931</v>
       </c>
       <c r="AF24" t="n">
-        <v>2858.654493528217</v>
+        <v>443.2468389777814</v>
       </c>
       <c r="AG24" t="n">
-        <v>263.0267844913795</v>
+        <v>1297.88504400112</v>
       </c>
       <c r="AH24" t="n">
-        <v>749.1106456911873</v>
+        <v>66.55749691561502</v>
       </c>
       <c r="AI24" t="n">
-        <v>39.30380086405651</v>
+        <v>6128.799720646914</v>
       </c>
       <c r="AJ24" t="n">
-        <v>3607.765139219404</v>
+        <v>509.8087736504165</v>
       </c>
       <c r="AK24" t="n">
-        <v>302.330585355436</v>
+        <v>685.2442564301433</v>
       </c>
       <c r="AL24" t="n">
-        <v>437.3330943817917</v>
+        <v>35.41797521208353</v>
       </c>
       <c r="AM24" t="n">
-        <v>20.11033611485321</v>
+        <v>488.0008374579976</v>
       </c>
       <c r="AN24" t="n">
-        <v>317.5310624002461</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>54.01953022997194</v>
+        <v>88.64524332039372</v>
       </c>
     </row>
     <row r="25">
@@ -3559,85 +3485,82 @@
         <v>156.9910835441041</v>
       </c>
       <c r="O25" t="n">
-        <v>369.84727204031</v>
+        <v>57213.53364284865</v>
       </c>
       <c r="P25" t="n">
-        <v>33915.75267862975</v>
+        <v>1907.120298676944</v>
       </c>
       <c r="Q25" t="n">
-        <v>1907.120298676944</v>
+        <v>10202.02069038917</v>
       </c>
       <c r="R25" t="n">
-        <v>5722.957715214037</v>
+        <v>4069.258940212159</v>
       </c>
       <c r="S25" t="n">
-        <v>2181.348649886516</v>
+        <v>365.4486833228631</v>
       </c>
       <c r="T25" t="n">
-        <v>200.7208970334094</v>
+        <v>1443.835744476015</v>
       </c>
       <c r="U25" t="n">
-        <v>724.7658967003705</v>
+        <v>63.15224509293736</v>
       </c>
       <c r="V25" t="n">
-        <v>34.81527228810378</v>
+        <v>5513.094700446631</v>
       </c>
       <c r="W25" t="n">
-        <v>2906.114546586887</v>
+        <v>428.600834521863</v>
       </c>
       <c r="X25" t="n">
-        <v>235.5361693215132</v>
+        <v>594.8077822978206</v>
       </c>
       <c r="Y25" t="n">
-        <v>352.487270343949</v>
+        <v>32.77865666986138</v>
       </c>
       <c r="Z25" t="n">
-        <v>19.52257807861288</v>
+        <v>407.8006608853992</v>
       </c>
       <c r="AA25" t="n">
-        <v>246.9200144692346</v>
+        <v>68.92527923772626</v>
       </c>
       <c r="AB25" t="n">
-        <v>39.56241485494238</v>
+        <v>61110.96654518973</v>
       </c>
       <c r="AC25" t="n">
-        <v>36935.90547590114</v>
+        <v>2037.034598188774</v>
       </c>
       <c r="AD25" t="n">
-        <v>2037.034598188774</v>
+        <v>12755.61159192252</v>
       </c>
       <c r="AE25" t="n">
-        <v>7328.434916081909</v>
+        <v>4803.282713156659</v>
       </c>
       <c r="AF25" t="n">
-        <v>2808.062383948281</v>
+        <v>430.2474435122967</v>
       </c>
       <c r="AG25" t="n">
-        <v>250.9182331412228</v>
+        <v>1254.155475813136</v>
       </c>
       <c r="AH25" t="n">
-        <v>700.1218671414014</v>
+        <v>59.12490271011246</v>
       </c>
       <c r="AI25" t="n">
-        <v>36.21950078990533</v>
+        <v>6057.449818937076</v>
       </c>
       <c r="AJ25" t="n">
-        <v>3508.184251089683</v>
+        <v>489.3716436594894</v>
       </c>
       <c r="AK25" t="n">
-        <v>287.1377339311282</v>
+        <v>671.9661979339508</v>
       </c>
       <c r="AL25" t="n">
-        <v>414.390579467633</v>
+        <v>31.64263577001464</v>
       </c>
       <c r="AM25" t="n">
-        <v>20.23579307315606</v>
+        <v>481.1662962291671</v>
       </c>
       <c r="AN25" t="n">
-        <v>300.0832532466933</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>51.83649692120473</v>
+        <v>86.58316381985072</v>
       </c>
     </row>
     <row r="26">
@@ -3684,85 +3607,82 @@
         <v>160.7748926479165</v>
       </c>
       <c r="O26" t="n">
-        <v>365.3636020962882</v>
+        <v>54399.01712128112</v>
       </c>
       <c r="P26" t="n">
-        <v>33804.21177973453</v>
+        <v>1813.299478801245</v>
       </c>
       <c r="Q26" t="n">
-        <v>1813.299478801245</v>
+        <v>9458.612385868857</v>
       </c>
       <c r="R26" t="n">
-        <v>5595.561022254214</v>
+        <v>3825.388108019494</v>
       </c>
       <c r="S26" t="n">
-        <v>2144.419769635036</v>
+        <v>355.8553737281199</v>
       </c>
       <c r="T26" t="n">
-        <v>202.6166020491287</v>
+        <v>1509.708136713977</v>
       </c>
       <c r="U26" t="n">
-        <v>743.5468280802818</v>
+        <v>68.91351991113689</v>
       </c>
       <c r="V26" t="n">
-        <v>37.57389471887847</v>
+        <v>5335.093209005947</v>
       </c>
       <c r="W26" t="n">
-        <v>2887.966597715318</v>
+        <v>424.7731221610827</v>
       </c>
       <c r="X26" t="n">
-        <v>240.1904967680071</v>
+        <v>582.264282795922</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.5586488384305</v>
+        <v>30.88756906728281</v>
       </c>
       <c r="Z26" t="n">
-        <v>17.97941357542617</v>
+        <v>397.4913378204741</v>
       </c>
       <c r="AA26" t="n">
-        <v>252.3419105644052</v>
+        <v>63.58266333836028</v>
       </c>
       <c r="AB26" t="n">
-        <v>37.32189463442904</v>
+        <v>60437.98480222063</v>
       </c>
       <c r="AC26" t="n">
-        <v>38223.93189910146</v>
+        <v>2014.596104684875</v>
       </c>
       <c r="AD26" t="n">
-        <v>2014.596104684875</v>
+        <v>12363.23610209482</v>
       </c>
       <c r="AE26" t="n">
-        <v>7542.861636909988</v>
+        <v>4939.460946723765</v>
       </c>
       <c r="AF26" t="n">
-        <v>2869.807679166662</v>
+        <v>443.5399416397182</v>
       </c>
       <c r="AG26" t="n">
-        <v>262.0675060633998</v>
+        <v>1356.122584935095</v>
       </c>
       <c r="AH26" t="n">
-        <v>748.5532025726336</v>
+        <v>73.23730271335899</v>
       </c>
       <c r="AI26" t="n">
-        <v>42.75164731169912</v>
+        <v>6295.586512326777</v>
       </c>
       <c r="AJ26" t="n">
-        <v>3618.360881739296</v>
+        <v>516.775999982198</v>
       </c>
       <c r="AK26" t="n">
-        <v>304.8191533750989</v>
+        <v>654.3120484393587</v>
       </c>
       <c r="AL26" t="n">
-        <v>424.8804848962775</v>
+        <v>34.14301141358911</v>
       </c>
       <c r="AM26" t="n">
-        <v>19.76488256626631</v>
+        <v>456.9089292742582</v>
       </c>
       <c r="AN26" t="n">
-        <v>309.5792295495429</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>52.67727377336309</v>
+        <v>87.86595110836045</v>
       </c>
     </row>
     <row r="27">
@@ -3809,85 +3729,82 @@
         <v>164.9390487904885</v>
       </c>
       <c r="O27" t="n">
-        <v>373.068419080518</v>
+        <v>56066.19696689596</v>
       </c>
       <c r="P27" t="n">
-        <v>34878.94125977526</v>
+        <v>1868.869013306145</v>
       </c>
       <c r="Q27" t="n">
-        <v>1868.869013306145</v>
+        <v>9788.739998486441</v>
       </c>
       <c r="R27" t="n">
-        <v>5831.792528857784</v>
+        <v>4036.013925556521</v>
       </c>
       <c r="S27" t="n">
-        <v>2284.436009903181</v>
+        <v>377.2765771956688</v>
       </c>
       <c r="T27" t="n">
-        <v>214.7050153305871</v>
+        <v>1626.545086327015</v>
       </c>
       <c r="U27" t="n">
-        <v>852.8827147768297</v>
+        <v>73.95318407435545</v>
       </c>
       <c r="V27" t="n">
-        <v>42.24002371536251</v>
+        <v>5662.564501461101</v>
       </c>
       <c r="W27" t="n">
-        <v>3137.318724680011</v>
+        <v>451.2266268759906</v>
       </c>
       <c r="X27" t="n">
-        <v>256.9450390459497</v>
+        <v>600.993299180336</v>
       </c>
       <c r="Y27" t="n">
-        <v>366.9984264249853</v>
+        <v>31.05327931411373</v>
       </c>
       <c r="Z27" t="n">
-        <v>19.70311823806195</v>
+        <v>406.9530658243246</v>
       </c>
       <c r="AA27" t="n">
-        <v>257.5693450003056</v>
+        <v>62.73407979174201</v>
       </c>
       <c r="AB27" t="n">
-        <v>39.51953440447653</v>
+        <v>60352.00796091585</v>
       </c>
       <c r="AC27" t="n">
-        <v>39614.77806096394</v>
+        <v>2011.730472940012</v>
       </c>
       <c r="AD27" t="n">
-        <v>2011.730472940012</v>
+        <v>12242.14715750135</v>
       </c>
       <c r="AE27" t="n">
-        <v>7838.540464425588</v>
+        <v>4943.391046072808</v>
       </c>
       <c r="AF27" t="n">
-        <v>3065.546068930713</v>
+        <v>433.6195963412792</v>
       </c>
       <c r="AG27" t="n">
-        <v>276.9973882139354</v>
+        <v>1401.454860341151</v>
       </c>
       <c r="AH27" t="n">
-        <v>840.5671149399682</v>
+        <v>64.18543830366742</v>
       </c>
       <c r="AI27" t="n">
-        <v>41.64884833653634</v>
+        <v>6344.842841865971</v>
       </c>
       <c r="AJ27" t="n">
-        <v>3906.113183870681</v>
+        <v>497.7971328007415</v>
       </c>
       <c r="AK27" t="n">
-        <v>318.6462365504717</v>
+        <v>662.3260843959215</v>
       </c>
       <c r="AL27" t="n">
-        <v>443.904767366291</v>
+        <v>29.22066751545388</v>
       </c>
       <c r="AM27" t="n">
-        <v>20.04706578147425</v>
+        <v>487.0909912130505</v>
       </c>
       <c r="AN27" t="n">
-        <v>329.7139748770506</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>54.46547387896642</v>
+        <v>82.36129420710449</v>
       </c>
     </row>
     <row r="28">
@@ -3934,85 +3851,82 @@
         <v>158.5201753520048</v>
       </c>
       <c r="O28" t="n">
-        <v>357.6480337608097</v>
+        <v>53544.15079386446</v>
       </c>
       <c r="P28" t="n">
-        <v>34941.54243866511</v>
+        <v>1784.796059715648</v>
       </c>
       <c r="Q28" t="n">
-        <v>1784.796059715648</v>
+        <v>9233.132397562418</v>
       </c>
       <c r="R28" t="n">
-        <v>5737.217281885708</v>
+        <v>3844.480077670875</v>
       </c>
       <c r="S28" t="n">
-        <v>2202.194729544146</v>
+        <v>352.0577786935413</v>
       </c>
       <c r="T28" t="n">
-        <v>202.0460935968219</v>
+        <v>1362.58623995446</v>
       </c>
       <c r="U28" t="n">
-        <v>722.1219583764386</v>
+        <v>66.64550679789777</v>
       </c>
       <c r="V28" t="n">
-        <v>36.24394691355</v>
+        <v>5207.060312066182</v>
       </c>
       <c r="W28" t="n">
-        <v>2924.316687920584</v>
+        <v>418.6958574342866</v>
       </c>
       <c r="X28" t="n">
-        <v>238.2900405103719</v>
+        <v>577.4588499667123</v>
       </c>
       <c r="Y28" t="n">
-        <v>366.1501122684674</v>
+        <v>33.94827033778219</v>
       </c>
       <c r="Z28" t="n">
-        <v>19.36366183854343</v>
+        <v>390.5490425667331</v>
       </c>
       <c r="AA28" t="n">
-        <v>256.8954016415445</v>
+        <v>65.65532690473461</v>
       </c>
       <c r="AB28" t="n">
-        <v>38.76083971479854</v>
+        <v>56661.74978099167</v>
       </c>
       <c r="AC28" t="n">
-        <v>38098.82422859608</v>
+        <v>1888.724529258267</v>
       </c>
       <c r="AD28" t="n">
-        <v>1888.724529258267</v>
+        <v>11269.04429964407</v>
       </c>
       <c r="AE28" t="n">
-        <v>7397.666659386739</v>
+        <v>4449.143089490983</v>
       </c>
       <c r="AF28" t="n">
-        <v>2896.342588090051</v>
+        <v>412.7441888188598</v>
       </c>
       <c r="AG28" t="n">
-        <v>265.9223897510197</v>
+        <v>1245.751675213794</v>
       </c>
       <c r="AH28" t="n">
-        <v>781.3491638368338</v>
+        <v>66.39916982835305</v>
       </c>
       <c r="AI28" t="n">
-        <v>41.98842129371562</v>
+        <v>5694.889343953652</v>
       </c>
       <c r="AJ28" t="n">
-        <v>3677.691751926885</v>
+        <v>479.146074522968</v>
       </c>
       <c r="AK28" t="n">
-        <v>307.9108110447353</v>
+        <v>634.5392571050025</v>
       </c>
       <c r="AL28" t="n">
-        <v>430.5728647021512</v>
+        <v>34.04149912833539</v>
       </c>
       <c r="AM28" t="n">
-        <v>21.03809421800968</v>
+        <v>459.077197721874</v>
       </c>
       <c r="AN28" t="n">
-        <v>318.6039096064366</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>53.67974441812109</v>
+        <v>83.7854596160429</v>
       </c>
     </row>
     <row r="29">
@@ -4059,85 +3973,82 @@
         <v>166.9550846271858</v>
       </c>
       <c r="O29" t="n">
-        <v>372.0506503196192</v>
+        <v>55024.26796277858</v>
       </c>
       <c r="P29" t="n">
-        <v>34679.27677178572</v>
+        <v>1834.143463374185</v>
       </c>
       <c r="Q29" t="n">
-        <v>1834.143463374185</v>
+        <v>9665.409453279286</v>
       </c>
       <c r="R29" t="n">
-        <v>5704.927460709919</v>
+        <v>3974.001796638549</v>
       </c>
       <c r="S29" t="n">
-        <v>2303.147960079108</v>
+        <v>370.9402809000463</v>
       </c>
       <c r="T29" t="n">
-        <v>215.3822290110571</v>
+        <v>1412.962441033549</v>
       </c>
       <c r="U29" t="n">
-        <v>796.2868839391176</v>
+        <v>68.89512549685762</v>
       </c>
       <c r="V29" t="n">
-        <v>41.64608043491847</v>
+        <v>5386.958771736605</v>
       </c>
       <c r="W29" t="n">
-        <v>3099.434844018225</v>
+        <v>439.8353828830292</v>
       </c>
       <c r="X29" t="n">
-        <v>257.0283094459756</v>
+        <v>593.2920974831975</v>
       </c>
       <c r="Y29" t="n">
-        <v>363.8425273681402</v>
+        <v>37.24151864015836</v>
       </c>
       <c r="Z29" t="n">
-        <v>21.82826388304283</v>
+        <v>404.8578062042913</v>
       </c>
       <c r="AA29" t="n">
-        <v>255.823051359777</v>
+        <v>73.29106810851292</v>
       </c>
       <c r="AB29" t="n">
-        <v>42.78940828469226</v>
+        <v>57099.23128334885</v>
       </c>
       <c r="AC29" t="n">
-        <v>38245.88970673888</v>
+        <v>1903.3125934465</v>
       </c>
       <c r="AD29" t="n">
-        <v>1903.3125934465</v>
+        <v>11367.1900914332</v>
       </c>
       <c r="AE29" t="n">
-        <v>7302.602606660343</v>
+        <v>4513.343228827075</v>
       </c>
       <c r="AF29" t="n">
-        <v>2870.891129346027</v>
+        <v>413.0206609372514</v>
       </c>
       <c r="AG29" t="n">
-        <v>265.8360621668756</v>
+        <v>1225.697736649919</v>
       </c>
       <c r="AH29" t="n">
-        <v>774.3966905765669</v>
+        <v>65.40346930291361</v>
       </c>
       <c r="AI29" t="n">
-        <v>42.58158223936258</v>
+        <v>5739.045063992563</v>
       </c>
       <c r="AJ29" t="n">
-        <v>3645.287819922594</v>
+        <v>478.4180861182618</v>
       </c>
       <c r="AK29" t="n">
-        <v>308.4176444062383</v>
+        <v>647.7978503668476</v>
       </c>
       <c r="AL29" t="n">
-        <v>434.7585351654824</v>
+        <v>29.58392574494291</v>
       </c>
       <c r="AM29" t="n">
-        <v>19.44655670468797</v>
+        <v>463.2124902760171</v>
       </c>
       <c r="AN29" t="n">
-        <v>320.1658591543422</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>55.13199360843129</v>
+        <v>85.08463295111243</v>
       </c>
     </row>
     <row r="30">
@@ -4184,85 +4095,82 @@
         <v>166.0233021551827</v>
       </c>
       <c r="O30" t="n">
-        <v>377.7094620064518</v>
+        <v>56779.23653672008</v>
       </c>
       <c r="P30" t="n">
-        <v>33013.94510395457</v>
+        <v>1892.64544548756</v>
       </c>
       <c r="Q30" t="n">
-        <v>1892.64544548756</v>
+        <v>9890.011631444942</v>
       </c>
       <c r="R30" t="n">
-        <v>5512.439779868789</v>
+        <v>4302.034897945029</v>
       </c>
       <c r="S30" t="n">
-        <v>2238.178392265339</v>
+        <v>404.2054141314623</v>
       </c>
       <c r="T30" t="n">
-        <v>214.3223637962542</v>
+        <v>1713.619025644707</v>
       </c>
       <c r="U30" t="n">
-        <v>850.9790784315136</v>
+        <v>78.84446505396384</v>
       </c>
       <c r="V30" t="n">
-        <v>41.79239681612786</v>
+        <v>6015.652136563454</v>
       </c>
       <c r="W30" t="n">
-        <v>3089.157470696853</v>
+        <v>483.0537206831744</v>
       </c>
       <c r="X30" t="n">
-        <v>256.1147606123821</v>
+        <v>610.9531040869649</v>
       </c>
       <c r="Y30" t="n">
-        <v>348.4922965545503</v>
+        <v>35.63519169052428</v>
       </c>
       <c r="Z30" t="n">
-        <v>19.60576403502648</v>
+        <v>401.8091050816078</v>
       </c>
       <c r="AA30" t="n">
-        <v>239.388220728403</v>
+        <v>70.54986792481343</v>
       </c>
       <c r="AB30" t="n">
-        <v>37.34372710649394</v>
+        <v>60707.82336004148</v>
       </c>
       <c r="AC30" t="n">
-        <v>37767.8934197098</v>
+        <v>2023.59292155222</v>
       </c>
       <c r="AD30" t="n">
-        <v>2023.59292155222</v>
+        <v>12158.88396900118</v>
       </c>
       <c r="AE30" t="n">
-        <v>7431.73532577248</v>
+        <v>5202.355853633914</v>
       </c>
       <c r="AF30" t="n">
-        <v>3052.639590675089</v>
+        <v>463.8471338511403</v>
       </c>
       <c r="AG30" t="n">
-        <v>273.8445438820235</v>
+        <v>1553.567282472937</v>
       </c>
       <c r="AH30" t="n">
-        <v>846.3302397465468</v>
+        <v>76.21989179954107</v>
       </c>
       <c r="AI30" t="n">
-        <v>44.72333827761511</v>
+        <v>6755.923643487759</v>
       </c>
       <c r="AJ30" t="n">
-        <v>3898.969830421636</v>
+        <v>540.0631049178998</v>
       </c>
       <c r="AK30" t="n">
-        <v>318.5678821596386</v>
+        <v>689.5986963037827</v>
       </c>
       <c r="AL30" t="n">
-        <v>430.1130618363705</v>
+        <v>36.58547544816749</v>
       </c>
       <c r="AM30" t="n">
-        <v>20.78284838962665</v>
+        <v>485.9248639054455</v>
       </c>
       <c r="AN30" t="n">
-        <v>309.6612635646069</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>56.87058423877802</v>
+        <v>97.97694299256251</v>
       </c>
     </row>
     <row r="31">
@@ -4309,85 +4217,82 @@
         <v>170.7982958093888</v>
       </c>
       <c r="O31" t="n">
-        <v>376.0921475799935</v>
+        <v>57227.99707564934</v>
       </c>
       <c r="P31" t="n">
-        <v>34788.70657559582</v>
+        <v>1907.596163104823</v>
       </c>
       <c r="Q31" t="n">
-        <v>1907.596163104823</v>
+        <v>10191.46428617015</v>
       </c>
       <c r="R31" t="n">
-        <v>5927.54926917826</v>
+        <v>4391.805477045978</v>
       </c>
       <c r="S31" t="n">
-        <v>2423.841907692676</v>
+        <v>390.1249766622291</v>
       </c>
       <c r="T31" t="n">
-        <v>224.4081437686795</v>
+        <v>1484.907697034336</v>
       </c>
       <c r="U31" t="n">
-        <v>819.0315293413456</v>
+        <v>74.27431332447328</v>
       </c>
       <c r="V31" t="n">
-        <v>42.86237699651966</v>
+        <v>5876.71518115519</v>
       </c>
       <c r="W31" t="n">
-        <v>3242.873437034022</v>
+        <v>464.4029961944394</v>
       </c>
       <c r="X31" t="n">
-        <v>267.2705207651991</v>
+        <v>613.6721425408211</v>
       </c>
       <c r="Y31" t="n">
-        <v>365.8674024796252</v>
+        <v>34.8744721128821</v>
       </c>
       <c r="Z31" t="n">
-        <v>19.61841323439354</v>
+        <v>430.6267465174121</v>
       </c>
       <c r="AA31" t="n">
-        <v>263.29437528632</v>
+        <v>74.76550773086633</v>
       </c>
       <c r="AB31" t="n">
-        <v>43.54977136998954</v>
+        <v>58873.33041997647</v>
       </c>
       <c r="AC31" t="n">
-        <v>36453.13585404897</v>
+        <v>1962.443503911571</v>
       </c>
       <c r="AD31" t="n">
-        <v>1962.443503911571</v>
+        <v>11937.09912473844</v>
       </c>
       <c r="AE31" t="n">
-        <v>7195.890191616673</v>
+        <v>4962.072921373356</v>
       </c>
       <c r="AF31" t="n">
-        <v>2925.250961727906</v>
+        <v>451.2602918208639</v>
       </c>
       <c r="AG31" t="n">
-        <v>268.6323451722511</v>
+        <v>1419.027115265054</v>
       </c>
       <c r="AH31" t="n">
-        <v>833.1025719863035</v>
+        <v>72.97676951639178</v>
       </c>
       <c r="AI31" t="n">
-        <v>44.11752437918501</v>
+        <v>6381.095072403437</v>
       </c>
       <c r="AJ31" t="n">
-        <v>3758.35353371421</v>
+        <v>524.2465984712945</v>
       </c>
       <c r="AK31" t="n">
-        <v>312.7498695514361</v>
+        <v>672.8562554454858</v>
       </c>
       <c r="AL31" t="n">
-        <v>422.7590040153711</v>
+        <v>35.42768721736794</v>
       </c>
       <c r="AM31" t="n">
-        <v>20.83123077953427</v>
+        <v>474.7903929091175</v>
       </c>
       <c r="AN31" t="n">
-        <v>303.8716704078202</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>53.48591791882609</v>
+        <v>90.64058226042461</v>
       </c>
     </row>
     <row r="32">
@@ -4434,85 +4339,82 @@
         <v>153.2902240343394</v>
       </c>
       <c r="O32" t="n">
-        <v>366.2691431513324</v>
+        <v>54438.45558850463</v>
       </c>
       <c r="P32" t="n">
-        <v>31862.07368445676</v>
+        <v>1814.612192066285</v>
       </c>
       <c r="Q32" t="n">
-        <v>1814.612192066285</v>
+        <v>9360.170846860123</v>
       </c>
       <c r="R32" t="n">
-        <v>5238.706782523302</v>
+        <v>3828.694424761704</v>
       </c>
       <c r="S32" t="n">
-        <v>2063.588835000626</v>
+        <v>361.4971356817721</v>
       </c>
       <c r="T32" t="n">
-        <v>197.6142967122353</v>
+        <v>1472.278055995268</v>
       </c>
       <c r="U32" t="n">
-        <v>765.1826340445158</v>
+        <v>71.20247681071795</v>
       </c>
       <c r="V32" t="n">
-        <v>40.51032613192518</v>
+        <v>5300.976109823459</v>
       </c>
       <c r="W32" t="n">
-        <v>2828.771469045142</v>
+        <v>432.6989340925747</v>
       </c>
       <c r="X32" t="n">
-        <v>238.1246228441605</v>
+        <v>574.4886661975428</v>
       </c>
       <c r="Y32" t="n">
-        <v>330.6338902627651</v>
+        <v>31.84416936848954</v>
       </c>
       <c r="Z32" t="n">
-        <v>18.07695991627998</v>
+        <v>384.8635505027447</v>
       </c>
       <c r="AA32" t="n">
-        <v>225.8860342937542</v>
+        <v>63.02171998115675</v>
       </c>
       <c r="AB32" t="n">
-        <v>36.07725597010512</v>
+        <v>57599.10339217628</v>
       </c>
       <c r="AC32" t="n">
-        <v>37746.82867079126</v>
+        <v>1919.968531417305</v>
       </c>
       <c r="AD32" t="n">
-        <v>1919.968531417305</v>
+        <v>11201.28271392167</v>
       </c>
       <c r="AE32" t="n">
-        <v>7057.754720372085</v>
+        <v>4495.390757367391</v>
       </c>
       <c r="AF32" t="n">
-        <v>2732.689331222517</v>
+        <v>412.1799590550236</v>
       </c>
       <c r="AG32" t="n">
-        <v>252.9213100783111</v>
+        <v>1243.036716007036</v>
       </c>
       <c r="AH32" t="n">
-        <v>716.1954277322071</v>
+        <v>64.87051782166621</v>
       </c>
       <c r="AI32" t="n">
-        <v>38.34761010010789</v>
+        <v>5738.428705225242</v>
       </c>
       <c r="AJ32" t="n">
-        <v>3448.884758954724</v>
+        <v>477.0535204032249</v>
       </c>
       <c r="AK32" t="n">
-        <v>291.268920178419</v>
+        <v>635.7337322237455</v>
       </c>
       <c r="AL32" t="n">
-        <v>417.6606281298555</v>
+        <v>32.75285873271383</v>
       </c>
       <c r="AM32" t="n">
-        <v>18.69828696685737</v>
+        <v>462.90120090816</v>
       </c>
       <c r="AN32" t="n">
-        <v>308.7150464460283</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>50.88521718408944</v>
+        <v>80.92314397365469</v>
       </c>
     </row>
     <row r="33">
@@ -4559,85 +4461,82 @@
         <v>157.176259230846</v>
       </c>
       <c r="O33" t="n">
-        <v>377.1437039177418</v>
+        <v>53951.40715120054</v>
       </c>
       <c r="P33" t="n">
-        <v>33871.52074370753</v>
+        <v>1798.378761614381</v>
       </c>
       <c r="Q33" t="n">
-        <v>1798.378761614381</v>
+        <v>9010.842746244096</v>
       </c>
       <c r="R33" t="n">
-        <v>5409.655380680079</v>
+        <v>3850.865884347348</v>
       </c>
       <c r="S33" t="n">
-        <v>2131.641949223399</v>
+        <v>365.5801078915492</v>
       </c>
       <c r="T33" t="n">
-        <v>208.7733603611133</v>
+        <v>1600.4660191915</v>
       </c>
       <c r="U33" t="n">
-        <v>782.3206447303876</v>
+        <v>73.32102185237666</v>
       </c>
       <c r="V33" t="n">
-        <v>39.7001804341868</v>
+        <v>5451.330410610216</v>
       </c>
       <c r="W33" t="n">
-        <v>2913.962593953787</v>
+        <v>438.9061196423561</v>
       </c>
       <c r="X33" t="n">
-        <v>248.4735407953001</v>
+        <v>555.7718644898822</v>
       </c>
       <c r="Y33" t="n">
-        <v>344.2724305748371</v>
+        <v>32.3762319277431</v>
       </c>
       <c r="Z33" t="n">
-        <v>17.91743969103597</v>
+        <v>375.2447772057662</v>
       </c>
       <c r="AA33" t="n">
-        <v>240.8822017086154</v>
+        <v>66.33174225983527</v>
       </c>
       <c r="AB33" t="n">
-        <v>39.545457419473</v>
+        <v>58929.41251099029</v>
       </c>
       <c r="AC33" t="n">
-        <v>39739.98457498498</v>
+        <v>1964.31284642465</v>
       </c>
       <c r="AD33" t="n">
-        <v>1964.31284642465</v>
+        <v>11367.74962124241</v>
       </c>
       <c r="AE33" t="n">
-        <v>7427.146705800506</v>
+        <v>4465.112652507781</v>
       </c>
       <c r="AF33" t="n">
-        <v>2777.12090563123</v>
+        <v>404.519180585689</v>
       </c>
       <c r="AG33" t="n">
-        <v>257.4244521618278</v>
+        <v>1250.97454856047</v>
       </c>
       <c r="AH33" t="n">
-        <v>733.4144175557418</v>
+        <v>61.02593504080772</v>
       </c>
       <c r="AI33" t="n">
-        <v>38.41557678591393</v>
+        <v>5716.087836668081</v>
       </c>
       <c r="AJ33" t="n">
-        <v>3510.535323186972</v>
+        <v>465.540114356192</v>
       </c>
       <c r="AK33" t="n">
-        <v>295.8400289477418</v>
+        <v>638.981764056124</v>
       </c>
       <c r="AL33" t="n">
-        <v>434.2886141298719</v>
+        <v>29.85549184562461</v>
       </c>
       <c r="AM33" t="n">
-        <v>18.02555262258813</v>
+        <v>474.049107756079</v>
       </c>
       <c r="AN33" t="n">
-        <v>329.8108653772389</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>52.35206667389484</v>
+        <v>82.0859387025301</v>
       </c>
     </row>
     <row r="34">
@@ -4684,85 +4583,82 @@
         <v>167.8137344251305</v>
       </c>
       <c r="O34" t="n">
-        <v>376.9166773807088</v>
+        <v>56311.02082854691</v>
       </c>
       <c r="P34" t="n">
-        <v>35968.22102815987</v>
+        <v>1877.035896821658</v>
       </c>
       <c r="Q34" t="n">
-        <v>1877.035896821658</v>
+        <v>9844.651048513386</v>
       </c>
       <c r="R34" t="n">
-        <v>5960.402486767541</v>
+        <v>4072.56977040273</v>
       </c>
       <c r="S34" t="n">
-        <v>2330.326437226277</v>
+        <v>375.0500825317846</v>
       </c>
       <c r="T34" t="n">
-        <v>220.319611617263</v>
+        <v>1539.479622151971</v>
       </c>
       <c r="U34" t="n">
-        <v>817.0311733879254</v>
+        <v>71.14113992186819</v>
       </c>
       <c r="V34" t="n">
-        <v>40.95318661138488</v>
+        <v>5612.051197453758</v>
       </c>
       <c r="W34" t="n">
-        <v>3147.357610614201</v>
+        <v>446.1839066587306</v>
       </c>
       <c r="X34" t="n">
-        <v>261.2727982286478</v>
+        <v>592.6998909589074</v>
       </c>
       <c r="Y34" t="n">
-        <v>373.1542304228732</v>
+        <v>32.17220384773838</v>
       </c>
       <c r="Z34" t="n">
-        <v>19.33413362472325</v>
+        <v>403.5513024952739</v>
       </c>
       <c r="AA34" t="n">
-        <v>262.9827552431045</v>
+        <v>65.87089869596316</v>
       </c>
       <c r="AB34" t="n">
-        <v>40.41980370368157</v>
+        <v>59571.38839185957</v>
       </c>
       <c r="AC34" t="n">
-        <v>40777.90578623016</v>
+        <v>1985.710483331479</v>
       </c>
       <c r="AD34" t="n">
-        <v>1985.710483331479</v>
+        <v>11998.06797366243</v>
       </c>
       <c r="AE34" t="n">
-        <v>7776.06950619798</v>
+        <v>4764.863839878238</v>
       </c>
       <c r="AF34" t="n">
-        <v>3062.897156036529</v>
+        <v>422.1726841008478</v>
       </c>
       <c r="AG34" t="n">
-        <v>277.3033228373615</v>
+        <v>1251.545547775098</v>
       </c>
       <c r="AH34" t="n">
-        <v>808.7924964653192</v>
+        <v>65.14971044834914</v>
       </c>
       <c r="AI34" t="n">
-        <v>44.39476393207437</v>
+        <v>6016.413013867631</v>
       </c>
       <c r="AJ34" t="n">
-        <v>3871.689652501848</v>
+        <v>487.324860066667</v>
       </c>
       <c r="AK34" t="n">
-        <v>321.6980867694359</v>
+        <v>661.5309816485106</v>
       </c>
       <c r="AL34" t="n">
-        <v>458.1086832526004</v>
+        <v>33.85543486559928</v>
       </c>
       <c r="AM34" t="n">
-        <v>21.40631415754446</v>
+        <v>475.9358762490111</v>
       </c>
       <c r="AN34" t="n">
-        <v>334.409047512692</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>57.64869165749063</v>
+        <v>86.84932022272648</v>
       </c>
     </row>
     <row r="35">
@@ -4809,85 +4705,82 @@
         <v>160.1851323116805</v>
       </c>
       <c r="O35" t="n">
-        <v>382.8629253402333</v>
+        <v>58594.8348786529</v>
       </c>
       <c r="P35" t="n">
-        <v>34431.05736833756</v>
+        <v>1953.159110950958</v>
       </c>
       <c r="Q35" t="n">
-        <v>1953.159110950958</v>
+        <v>10364.60269333259</v>
       </c>
       <c r="R35" t="n">
-        <v>5732.532467317669</v>
+        <v>4164.049293668741</v>
       </c>
       <c r="S35" t="n">
-        <v>2228.155620899913</v>
+        <v>387.4965019600658</v>
       </c>
       <c r="T35" t="n">
-        <v>210.5206746670528</v>
+        <v>1341.487066403339</v>
       </c>
       <c r="U35" t="n">
-        <v>684.0393130555751</v>
+        <v>68.13761919057892</v>
       </c>
       <c r="V35" t="n">
-        <v>36.63090866341548</v>
+        <v>5505.537463813835</v>
       </c>
       <c r="W35" t="n">
-        <v>2912.194933955488</v>
+        <v>455.6341212520009</v>
       </c>
       <c r="X35" t="n">
-        <v>247.1515833304683</v>
+        <v>621.7018087760277</v>
       </c>
       <c r="Y35" t="n">
-        <v>358.6487864712482</v>
+        <v>32.39464287107538</v>
       </c>
       <c r="Z35" t="n">
-        <v>19.11029825377654</v>
+        <v>424.1749421696551</v>
       </c>
       <c r="AA35" t="n">
-        <v>253.4551485071802</v>
+        <v>72.18193577319958</v>
       </c>
       <c r="AB35" t="n">
-        <v>39.34216310128133</v>
+        <v>62503.49662905691</v>
       </c>
       <c r="AC35" t="n">
-        <v>38930.56577952335</v>
+        <v>2083.450746741948</v>
       </c>
       <c r="AD35" t="n">
-        <v>2083.450746741948</v>
+        <v>12660.31742145372</v>
       </c>
       <c r="AE35" t="n">
-        <v>7602.31534173928</v>
+        <v>5085.428414380337</v>
       </c>
       <c r="AF35" t="n">
-        <v>2925.995426439162</v>
+        <v>438.2738980964917</v>
       </c>
       <c r="AG35" t="n">
-        <v>259.4755940639525</v>
+        <v>1248.098525133657</v>
       </c>
       <c r="AH35" t="n">
-        <v>704.8318555134355</v>
+        <v>60.99833149694474</v>
       </c>
       <c r="AI35" t="n">
-        <v>37.78169543420365</v>
+        <v>6333.531035846806</v>
       </c>
       <c r="AJ35" t="n">
-        <v>3630.827281952597</v>
+        <v>499.2737027066226</v>
       </c>
       <c r="AK35" t="n">
-        <v>297.2572894981561</v>
+        <v>704.3682117023832</v>
       </c>
       <c r="AL35" t="n">
-        <v>445.8055476480037</v>
+        <v>31.69020729020651</v>
       </c>
       <c r="AM35" t="n">
-        <v>20.02160518946198</v>
+        <v>505.1885643593185</v>
       </c>
       <c r="AN35" t="n">
-        <v>323.3095709527627</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>53.45049401657424</v>
+        <v>88.62927524317418</v>
       </c>
     </row>
     <row r="36">
@@ -4934,85 +4827,82 @@
         <v>158.4354029750187</v>
       </c>
       <c r="O36" t="n">
-        <v>374.0632431247733</v>
+        <v>55251.93414641312</v>
       </c>
       <c r="P36" t="n">
-        <v>34991.91293964874</v>
+        <v>1841.724913557038</v>
       </c>
       <c r="Q36" t="n">
-        <v>1841.724913557038</v>
+        <v>9569.068659235525</v>
       </c>
       <c r="R36" t="n">
-        <v>5627.163506607672</v>
+        <v>3841.037388478696</v>
       </c>
       <c r="S36" t="n">
-        <v>2174.627801933399</v>
+        <v>357.3087374591969</v>
       </c>
       <c r="T36" t="n">
-        <v>202.1816013973386</v>
+        <v>1384.60399799987</v>
       </c>
       <c r="U36" t="n">
-        <v>725.5172727046348</v>
+        <v>68.80517794003705</v>
       </c>
       <c r="V36" t="n">
-        <v>38.15198694085765</v>
+        <v>5225.643914479455</v>
       </c>
       <c r="W36" t="n">
-        <v>2900.145074638034</v>
+        <v>426.1132466137868</v>
       </c>
       <c r="X36" t="n">
-        <v>240.3335883381962</v>
+        <v>580.1175357924235</v>
       </c>
       <c r="Y36" t="n">
-        <v>350.9120999523183</v>
+        <v>32.65805805238183</v>
       </c>
       <c r="Z36" t="n">
-        <v>18.34306748295585</v>
+        <v>414.7991573646472</v>
       </c>
       <c r="AA36" t="n">
-        <v>259.5999197518797</v>
+        <v>69.97864905987326</v>
       </c>
       <c r="AB36" t="n">
-        <v>40.33795292206818</v>
+        <v>60059.56122357341</v>
       </c>
       <c r="AC36" t="n">
-        <v>37755.00162542537</v>
+        <v>2001.980899309131</v>
       </c>
       <c r="AD36" t="n">
-        <v>2001.980899309131</v>
+        <v>11992.64849492528</v>
       </c>
       <c r="AE36" t="n">
-        <v>7110.989069356149</v>
+        <v>4920.147023150294</v>
       </c>
       <c r="AF36" t="n">
-        <v>2733.353793754041</v>
+        <v>436.9321047288035</v>
       </c>
       <c r="AG36" t="n">
-        <v>247.5083692717723</v>
+        <v>1335.219918337054</v>
       </c>
       <c r="AH36" t="n">
-        <v>710.6766818482697</v>
+        <v>68.99980910301261</v>
       </c>
       <c r="AI36" t="n">
-        <v>36.66733208903116</v>
+        <v>6255.363739599738</v>
       </c>
       <c r="AJ36" t="n">
-        <v>3444.030475602311</v>
+        <v>505.928870321551</v>
       </c>
       <c r="AK36" t="n">
-        <v>284.1757013608034</v>
+        <v>687.9775880171928</v>
       </c>
       <c r="AL36" t="n">
-        <v>424.4117099142658</v>
+        <v>34.42414029779311</v>
       </c>
       <c r="AM36" t="n">
-        <v>19.62151792240757</v>
+        <v>475.4010157817181</v>
       </c>
       <c r="AN36" t="n">
-        <v>309.6327662907506</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>51.82215029009947</v>
+        <v>87.79489185698624</v>
       </c>
     </row>
     <row r="37">
@@ -5059,85 +4949,82 @@
         <v>168.1091320893827</v>
       </c>
       <c r="O37" t="n">
-        <v>359.7526454128217</v>
+        <v>53198.79680966403</v>
       </c>
       <c r="P37" t="n">
-        <v>34116.98306646286</v>
+        <v>1773.29415348758</v>
       </c>
       <c r="Q37" t="n">
-        <v>1773.29415348758</v>
+        <v>9135.415951917041</v>
       </c>
       <c r="R37" t="n">
-        <v>5651.305473054373</v>
+        <v>3989.864591829016</v>
       </c>
       <c r="S37" t="n">
-        <v>2299.250757568044</v>
+        <v>373.385311973582</v>
       </c>
       <c r="T37" t="n">
-        <v>218.9724226961587</v>
+        <v>1682.198421934266</v>
       </c>
       <c r="U37" t="n">
-        <v>914.6240609887665</v>
+        <v>79.78605866144549</v>
       </c>
       <c r="V37" t="n">
-        <v>45.61766734459195</v>
+        <v>5672.055321399821</v>
       </c>
       <c r="W37" t="n">
-        <v>3213.874818556811</v>
+        <v>453.1769131247988</v>
       </c>
       <c r="X37" t="n">
-        <v>264.5900900407506</v>
+        <v>580.3108693532606</v>
       </c>
       <c r="Y37" t="n">
-        <v>361.0644580743332</v>
+        <v>32.08170780940682</v>
       </c>
       <c r="Z37" t="n">
-        <v>18.95314713113938</v>
+        <v>393.3802338455647</v>
       </c>
       <c r="AA37" t="n">
-        <v>253.4939265253166</v>
+        <v>63.72343596258796</v>
       </c>
       <c r="AB37" t="n">
-        <v>39.53471444296613</v>
+        <v>56847.06180141599</v>
       </c>
       <c r="AC37" t="n">
-        <v>37668.86602910449</v>
+        <v>1894.900837849083</v>
       </c>
       <c r="AD37" t="n">
-        <v>1894.900837849083</v>
+        <v>11287.32549358097</v>
       </c>
       <c r="AE37" t="n">
-        <v>7308.240468759115</v>
+        <v>4790.973687312833</v>
       </c>
       <c r="AF37" t="n">
-        <v>2992.223051638808</v>
+        <v>442.8042683955501</v>
       </c>
       <c r="AG37" t="n">
-        <v>272.5304711824405</v>
+        <v>1490.540226258248</v>
       </c>
       <c r="AH37" t="n">
-        <v>908.4844380101514</v>
+        <v>72.74862324615903</v>
       </c>
       <c r="AI37" t="n">
-        <v>45.44135466869106</v>
+        <v>6281.51520531004</v>
       </c>
       <c r="AJ37" t="n">
-        <v>3900.707489648959</v>
+        <v>515.5597502520675</v>
       </c>
       <c r="AK37" t="n">
-        <v>317.9718258511315</v>
+        <v>651.9274830904858</v>
       </c>
       <c r="AL37" t="n">
-        <v>435.9241909585364</v>
+        <v>35.8171801203592</v>
       </c>
       <c r="AM37" t="n">
-        <v>21.63223473068034</v>
+        <v>463.9833355254295</v>
       </c>
       <c r="AN37" t="n">
-        <v>317.0845981269686</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>54.21219843730164</v>
+        <v>89.7017221834605</v>
       </c>
     </row>
     <row r="38">
@@ -5184,85 +5071,82 @@
         <v>160.3909529688412</v>
       </c>
       <c r="O38" t="n">
-        <v>376.8321069309263</v>
+        <v>56337.33660442899</v>
       </c>
       <c r="P38" t="n">
-        <v>34643.64813273712</v>
+        <v>1877.909260268595</v>
       </c>
       <c r="Q38" t="n">
-        <v>1877.909260268595</v>
+        <v>9782.498600909203</v>
       </c>
       <c r="R38" t="n">
-        <v>5742.160221488879</v>
+        <v>4040.356988660327</v>
       </c>
       <c r="S38" t="n">
-        <v>2299.565533236841</v>
+        <v>364.6805087703225</v>
       </c>
       <c r="T38" t="n">
-        <v>213.0566152873785</v>
+        <v>1449.606724989886</v>
       </c>
       <c r="U38" t="n">
-        <v>812.8194919054457</v>
+        <v>66.6687142189438</v>
       </c>
       <c r="V38" t="n">
-        <v>40.24575850582411</v>
+        <v>5489.966093495399</v>
       </c>
       <c r="W38" t="n">
-        <v>3112.385025142286</v>
+        <v>431.3503260354731</v>
       </c>
       <c r="X38" t="n">
-        <v>253.3023737932027</v>
+        <v>593.9648782187736</v>
       </c>
       <c r="Y38" t="n">
-        <v>363.5221070544651</v>
+        <v>34.47332877113534</v>
       </c>
       <c r="Z38" t="n">
-        <v>19.58630953623231</v>
+        <v>396.9161101484998</v>
       </c>
       <c r="AA38" t="n">
-        <v>247.3200869611626</v>
+        <v>67.5468350644081</v>
       </c>
       <c r="AB38" t="n">
-        <v>39.90441607322654</v>
+        <v>60384.19195969597</v>
       </c>
       <c r="AC38" t="n">
-        <v>39144.71131076485</v>
+        <v>2012.804423014218</v>
       </c>
       <c r="AD38" t="n">
-        <v>2012.804423014218</v>
+        <v>12309.33242447338</v>
       </c>
       <c r="AE38" t="n">
-        <v>7647.581504023616</v>
+        <v>4997.868421501425</v>
       </c>
       <c r="AF38" t="n">
-        <v>3009.811294961768</v>
+        <v>437.4680011492171</v>
       </c>
       <c r="AG38" t="n">
-        <v>269.1403956565225</v>
+        <v>1400.797107741145</v>
       </c>
       <c r="AH38" t="n">
-        <v>834.1045490733557</v>
+        <v>64.65423928448216</v>
       </c>
       <c r="AI38" t="n">
-        <v>40.78224661079383</v>
+        <v>6398.662443764491</v>
       </c>
       <c r="AJ38" t="n">
-        <v>3843.915844035123</v>
+        <v>502.1248619081807</v>
       </c>
       <c r="AK38" t="n">
-        <v>309.9226422673163</v>
+        <v>651.1373205739662</v>
       </c>
       <c r="AL38" t="n">
-        <v>434.0441082133424</v>
+        <v>34.84329893344302</v>
       </c>
       <c r="AM38" t="n">
-        <v>21.72844838418712</v>
+        <v>486.3627967465494</v>
       </c>
       <c r="AN38" t="n">
-        <v>324.9085393128962</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>54.89886905988791</v>
+        <v>86.30646117155844</v>
       </c>
     </row>
     <row r="39">
@@ -5309,85 +5193,82 @@
         <v>161.2955766428667</v>
       </c>
       <c r="O39" t="n">
-        <v>375.8955109354046</v>
+        <v>54820.71948397039</v>
       </c>
       <c r="P39" t="n">
-        <v>35004.7638303659</v>
+        <v>1827.358782870207</v>
       </c>
       <c r="Q39" t="n">
-        <v>1827.358782870207</v>
+        <v>9685.261158411582</v>
       </c>
       <c r="R39" t="n">
-        <v>5895.14106105995</v>
+        <v>3984.352947039127</v>
       </c>
       <c r="S39" t="n">
-        <v>2270.606884076404</v>
+        <v>368.9527285045417</v>
       </c>
       <c r="T39" t="n">
-        <v>215.1977814249689</v>
+        <v>1506.447141924053</v>
       </c>
       <c r="U39" t="n">
-        <v>849.5111363244963</v>
+        <v>70.7764204941535</v>
       </c>
       <c r="V39" t="n">
-        <v>40.76417671051065</v>
+        <v>5490.79025536228</v>
       </c>
       <c r="W39" t="n">
-        <v>3120.1180204009</v>
+        <v>439.7327167577651</v>
       </c>
       <c r="X39" t="n">
-        <v>255.9619581354796</v>
+        <v>576.1590190361914</v>
       </c>
       <c r="Y39" t="n">
-        <v>363.3224220582798</v>
+        <v>34.82266723821802</v>
       </c>
       <c r="Z39" t="n">
-        <v>20.31222969415574</v>
+        <v>395.1398050795261</v>
       </c>
       <c r="AA39" t="n">
-        <v>256.3128187978616</v>
+        <v>61.77160816367509</v>
       </c>
       <c r="AB39" t="n">
-        <v>36.9216972841959</v>
+        <v>59516.40311700258</v>
       </c>
       <c r="AC39" t="n">
-        <v>40094.48175993998</v>
+        <v>1983.871702080531</v>
       </c>
       <c r="AD39" t="n">
-        <v>1983.871702080531</v>
+        <v>11984.21666398247</v>
       </c>
       <c r="AE39" t="n">
-        <v>7768.990896339975</v>
+        <v>4726.325029051711</v>
       </c>
       <c r="AF39" t="n">
-        <v>3010.76148747899</v>
+        <v>427.5343404550842</v>
       </c>
       <c r="AG39" t="n">
-        <v>276.6397480091668</v>
+        <v>1239.761746497053</v>
       </c>
       <c r="AH39" t="n">
-        <v>769.4020502577924</v>
+        <v>64.29969047592111</v>
       </c>
       <c r="AI39" t="n">
-        <v>42.02351954089821</v>
+        <v>5966.091702008504</v>
       </c>
       <c r="AJ39" t="n">
-        <v>3780.163537736782</v>
+        <v>491.8310796449991</v>
       </c>
       <c r="AK39" t="n">
-        <v>318.663267550065</v>
+        <v>677.8128187821513</v>
       </c>
       <c r="AL39" t="n">
-        <v>462.4716247526931</v>
+        <v>29.09398172818456</v>
       </c>
       <c r="AM39" t="n">
-        <v>19.24863024901477</v>
+        <v>489.1656022847076</v>
       </c>
       <c r="AN39" t="n">
-        <v>333.6568925307883</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>56.3000356427647</v>
+        <v>86.41133580602329</v>
       </c>
     </row>
   </sheetData>
